--- a/db/NCCU-151-ClassmateRenuion.xlsx
+++ b/db/NCCU-151-ClassmateRenuion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3DA620-2F55-4548-9053-E90478A82162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686BB0FC-F6AF-6B43-8B05-EB2D6073804E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="540" windowWidth="39120" windowHeight="22300" xr2:uid="{2BBFF2CF-9D18-B644-8C97-C6A9FA422757}"/>
+    <workbookView xWindow="4260" yWindow="1440" windowWidth="39120" windowHeight="21100" xr2:uid="{2BBFF2CF-9D18-B644-8C97-C6A9FA422757}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -468,9 +468,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-  </numFmts>
   <fonts count="4">
     <font>
       <sz val="12"/>
@@ -533,10 +530,10 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -859,15 +856,15 @@
       <pane xSplit="8" ySplit="1" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:A10"/>
+      <selection pane="bottomRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="8.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="15" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="23.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="28.6640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="30.1640625" style="2" customWidth="1"/>
@@ -881,13 +878,13 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -907,13 +904,13 @@
       <c r="A2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>2018</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>43136</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -933,13 +930,13 @@
       <c r="A3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>2018</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>43198</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -959,13 +956,13 @@
       <c r="A4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>2018</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>43356</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -985,13 +982,13 @@
       <c r="A5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>2018</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>43357</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -1008,13 +1005,13 @@
       <c r="A6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>2018</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>43404</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -1031,13 +1028,13 @@
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>2018</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>43426</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -1057,13 +1054,13 @@
       <c r="A8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>2018</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>43408</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -1080,13 +1077,13 @@
       <c r="A9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>2018</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>43409</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -1103,13 +1100,13 @@
       <c r="A10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>2018</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>43438</v>
       </c>
       <c r="E10" s="2" t="s">

--- a/db/NCCU-151-ClassmateRenuion.xlsx
+++ b/db/NCCU-151-ClassmateRenuion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686BB0FC-F6AF-6B43-8B05-EB2D6073804E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA8B95C-A7AC-8340-B6AC-2318640C0C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="1440" windowWidth="39120" windowHeight="21100" xr2:uid="{2BBFF2CF-9D18-B644-8C97-C6A9FA422757}"/>
+    <workbookView xWindow="980" yWindow="580" windowWidth="39120" windowHeight="22480" xr2:uid="{2BBFF2CF-9D18-B644-8C97-C6A9FA422757}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="94">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -462,6 +462,363 @@
   </si>
   <si>
     <t>2018-09</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歡迎香港何宜浩夫婦返台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾美酒店探索廚房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何宜浩夫婦、孫全玉、呂和美、王台鳳、陳玲美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在艾美酒店探索廚房，為來自香港的何宜浩夫婦接風。晚上在信義區欣賞夜景。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div id="carouselExampleIndicators-17-0321" class="carousel slide img-fluid" data-ride="carousel"&gt;
+	&lt;ol class="carousel-indicators"&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="01" class="active"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="02"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="03"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="04"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="05"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="06"&gt;&lt;/li&gt;												
+	&lt;/ol&gt;
+	&lt;div class="carousel-inner"&gt;
+		&lt;div class="carousel-item active"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0321-01.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0321-02.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0321-03.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0321-04.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0321-05.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;								
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0321-06.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+	&lt;/div&gt;
+	&lt;a class="carousel-control-prev" href="#carouselExampleIndicators-17-0321" role="button"	data-slide="prev"&gt;
+		&lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+	&lt;/a&gt;
+	&lt;a class="carousel-control-next" href="#carouselExampleIndicators-17-0321" role="button" data-slide="next"&gt;
+		&lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
+	&lt;/a&gt;
+&lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歡迎馬來西亞陳友福闔府返台旅遊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常聚吃烤鴨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 何宜浩夫婦、陳友福夫婦、女兒＆女婿、丁志愛、王台鳳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div id="carouselExampleIndicators-17-0322" class="carousel slide img-fluid" data-ride="carousel"&gt;
+	&lt;ol class="carousel-indicators"&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="01" class="active"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="02"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="03"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="04"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="05"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="06"&gt;&lt;/li&gt;
+                        &lt;li data-target="#carouselExampleIndicators" data-slide-to="07"&gt;&lt;/li&gt;												
+	&lt;/ol&gt;
+	&lt;div class="carousel-inner"&gt;
+		&lt;div class="carousel-item active"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0322-01.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0322-02.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0322-03.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0322-04.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0322-05.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;								
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0322-06.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0322-07.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;								
+	&lt;/div&gt;
+	&lt;a class="carousel-control-prev" href="#carouselExampleIndicators-17-0322" role="button"	data-slide="prev"&gt;
+		&lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+	&lt;/a&gt;
+	&lt;a class="carousel-control-next" href="#carouselExampleIndicators-17-0322" role="button" data-slide="next"&gt;
+		&lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
+	&lt;/a&gt;
+&lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里山旅遊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3/23-25: 3/24阿里山白河木棉道旅遊,   3/25四草溼地旅遊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div id="carouselExampleIndicators-17-0323" class="carousel slide img-fluid" data-ride="carousel"&gt;
+	&lt;ol class="carousel-indicators"&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="01" class="active"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="02"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="03"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="04"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="05"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="06"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="07"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="08"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="09"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="10"&gt;&lt;/li&gt;	
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="11"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="12"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="13"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="14"&gt;&lt;/li&gt;											
+	&lt;/ol&gt;
+	&lt;div class="carousel-inner"&gt;
+		&lt;div class="carousel-item active"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0323-01.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0323-02.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0323-03.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0323-04.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0323-05.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;								
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0323-06.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0323-07.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0323-08.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0323-09.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0323-10.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;	
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0323-11.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0323-12.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0323-13.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0323-14.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;								
+	&lt;/div&gt;
+	&lt;a class="carousel-control-prev" href="#carouselExampleIndicators-17-0323" role="button"	data-slide="prev"&gt;
+		&lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+	&lt;/a&gt;
+	&lt;a class="carousel-control-next" href="#carouselExampleIndicators-17-0323" role="button" data-slide="next"&gt;
+		&lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
+	&lt;/a&gt;
+&lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台灣大學校園</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何宜浩夫婦、陳友福夫婦、尤錦堂、 黃秋光、王〇〇、嚴建三、林蓀源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"&lt;div id=""carouselExampleIndicators-17-0327"" class=""carousel slide img-fluid"" data-ride=""carousel""&gt;
+	&lt;ol class=""carousel-indicators""&gt;
+		&lt;li data-target=""#carouselExampleIndicators"" data-slide-to=""01"" class=""active""&gt;&lt;/li&gt;
+		&lt;li data-target=""#carouselExampleIndicators"" data-slide-to=""02""&gt;&lt;/li&gt;
+		&lt;li data-target=""#carouselExampleIndicators"" data-slide-to=""03""&gt;&lt;/li&gt;
+	&lt;/ol&gt;
+	&lt;div class=""carousel-inner""&gt;
+		&lt;div class=""carousel-item active""&gt;&lt;img src=""fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0327-01.png"" class=""d-block w-100"" alt=""...""&gt;&lt;/div&gt;
+		&lt;div class=""carousel-item""&gt;&lt;img src=""fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0327-02.png"" class=""d-block w-100"" alt=""...""&gt;&lt;/div&gt;
+		&lt;div class=""carousel-item""&gt;&lt;img src=""fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0327-03.png"" class=""d-block w-100"" alt=""...""&gt;&lt;/div&gt;							
+	&lt;/div&gt;
+	&lt;a class=""carousel-control-prev"" href=""#carouselExampleIndicators-17-0327"" role=""button""	data-slide=""prev""&gt;
+		&lt;span class=""carousel-control-prev-icon"" aria-hidden=""true""&gt;&lt;/span&gt;
+		&lt;span class=""sr-only""&gt;Previous&lt;/span&gt;
+	&lt;/a&gt;
+	&lt;a class=""carousel-control-next"" href=""#carouselExampleIndicators-17-0327"" role=""button"" data-slide=""next""&gt;
+		&lt;span class=""carousel-control-next-icon"" aria-hidden=""true""&gt;&lt;/span&gt;
+		&lt;span class=""sr-only""&gt;Next&lt;/span&gt;
+	&lt;/a&gt;
+&lt;/div&gt;"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歡迎馬艶華、羅靜春回台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台北喜來登大飯店, 蘇可泰SUKHOTHAI泰式料理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div id="carouselExampleIndicators-17-1026" class="carousel slide img-fluid" data-ride="carousel"&gt;
+	&lt;ol class="carousel-indicators"&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="01" class="active"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="02"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="03"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="04"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="05"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="06"&gt;&lt;/li&gt;												
+	&lt;/ol&gt;
+	&lt;div class="carousel-inner"&gt;
+		&lt;div class="carousel-item active"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-1026-01.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-1026-02.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-1026-03.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-1026-04.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-1026-05.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;								
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-1026-06.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;								
+	&lt;/div&gt;
+	&lt;a class="carousel-control-prev" href="#carouselExampleIndicators-17-1026" role="button"	data-slide="prev"&gt;
+		&lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+	&lt;/a&gt;
+	&lt;a class="carousel-control-next" href="#carouselExampleIndicators-17-1026" role="button" data-slide="next"&gt;
+		&lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
+	&lt;/a&gt;
+&lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜來登12櫉下午茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羅靜春、王文枝、古富其、吳盛賢、曾寶鳳、蔡錦麗、黃和平、陳玲美、 王台鳳、莊渭源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  曾寶鳳、黃和平、馬艶華、羅靜春、丁志愛、蔡錦麗、陳玲美、莊渭源、古富其、王台鳳、吳盛賢、王文枝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div id="carouselExampleIndicators-17-1026b" class="carousel slide img-fluid" data-ride="carousel"&gt;
+	&lt;ol class="carousel-indicators"&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="11" class="active"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="12"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="13"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="14"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="15"&gt;&lt;/li&gt;											
+	&lt;/ol&gt;
+	&lt;div class="carousel-inner"&gt;
+		&lt;div class="carousel-item active"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-1026-11.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-1026-12.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-1026-13.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-1026-14.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-1026-15.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;															
+	&lt;/div&gt;
+	&lt;a class="carousel-control-prev" href="#carouselExampleIndicators-17-1026b" role="button"	data-slide="prev"&gt;
+		&lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+	&lt;/a&gt;
+	&lt;a class="carousel-control-next" href="#carouselExampleIndicators-17-1026b" role="button" data-slide="next"&gt;
+		&lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
+	&lt;/a&gt;
+&lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>華山文創</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王文枝、古富其、吳盛賢、莊渭源、 曾寶鳳、王台鳯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div id="carouselExampleIndicators-17-1026c" class="carousel slide img-fluid" data-ride="carousel"&gt;
+	&lt;ol class="carousel-indicators"&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="21" class="active"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="22"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="23"&gt;&lt;/li&gt;
+	&lt;/ol&gt;
+	&lt;div class="carousel-inner"&gt;
+		&lt;div class="carousel-item active"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-1026-21.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-1026-22.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-1026-23.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;														
+	&lt;/div&gt;
+	&lt;a class="carousel-control-prev" href="#carouselExampleIndicators-17-1026c" role="button"	data-slide="prev"&gt;
+		&lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+	&lt;/a&gt;
+	&lt;a class="carousel-control-next" href="#carouselExampleIndicators-17-1026c" role="button" data-slide="next"&gt;
+		&lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
+	&lt;/a&gt;
+&lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同學會晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立法院福利社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林台珍、施紫玲、穎君、呂和美、曾寶鳳、馬艶華、謝美玉、羅靜春、蔡錦麗、林娟、李素美、陳玲美、黃和平、王玲、丁志愛、尤錦堂、王文枝、謝安城、辜英齡、王貽媺、孫全玉、周成波、吳盛賢、林蓀源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div id="carouselExampleIndicators-17-1026d" class="carousel slide img-fluid" data-ride="carousel"&gt;
+	&lt;ol class="carousel-indicators"&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="31" class="active"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="32"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="33"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="34"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="35"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="36"&gt;&lt;/li&gt;												
+	&lt;/ol&gt;
+	&lt;div class="carousel-inner"&gt;
+		&lt;div class="carousel-item active"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-1026-31.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-1026-32.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-1026-33.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-1026-34.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-1026-35.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;								
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-1026-36.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;								
+	&lt;/div&gt;
+	&lt;a class="carousel-control-prev" href="#carouselExampleIndicators-17-1026d" role="button"	data-slide="prev"&gt;
+		&lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+	&lt;/a&gt;
+	&lt;a class="carousel-control-next" href="#carouselExampleIndicators-17-1026d" role="button" data-slide="next"&gt;
+		&lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
+	&lt;/a&gt;
+&lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-03</t>
+  </si>
+  <si>
+    <t>2017-04</t>
+  </si>
+  <si>
+    <t>2017-05</t>
+  </si>
+  <si>
+    <t>2017-06</t>
+  </si>
+  <si>
+    <t>2017-07</t>
+  </si>
+  <si>
+    <t>2017-08</t>
   </si>
 </sst>
 </file>
@@ -850,13 +1207,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D68409-2229-2B47-BB03-1F2924D40D6E}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:A1048576"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1119,6 +1476,193 @@
         <v>44</v>
       </c>
     </row>
+    <row r="11" spans="1:8" ht="409.6">
+      <c r="A11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="3">
+        <v>42815</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="409.6">
+      <c r="A12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="3">
+        <v>42816</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="409.6">
+      <c r="A13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="3">
+        <v>42789</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="409.6">
+      <c r="A14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="3">
+        <v>42821</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="409.6">
+      <c r="A15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="3">
+        <v>43034</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="409.6">
+      <c r="A16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="3">
+        <v>43034</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="409.6">
+      <c r="A17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="3">
+        <v>43034</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="409.6">
+      <c r="A18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="3">
+        <v>43034</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db/NCCU-151-ClassmateRenuion.xlsx
+++ b/db/NCCU-151-ClassmateRenuion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA8B95C-A7AC-8340-B6AC-2318640C0C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73037D58-67BA-1149-A3C4-2D0C4A6AC4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="580" windowWidth="39120" windowHeight="22480" xr2:uid="{2BBFF2CF-9D18-B644-8C97-C6A9FA422757}"/>
+    <workbookView xWindow="140" yWindow="560" windowWidth="39120" windowHeight="22480" xr2:uid="{2BBFF2CF-9D18-B644-8C97-C6A9FA422757}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -632,29 +632,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"&lt;div id=""carouselExampleIndicators-17-0327"" class=""carousel slide img-fluid"" data-ride=""carousel""&gt;
-	&lt;ol class=""carousel-indicators""&gt;
-		&lt;li data-target=""#carouselExampleIndicators"" data-slide-to=""01"" class=""active""&gt;&lt;/li&gt;
-		&lt;li data-target=""#carouselExampleIndicators"" data-slide-to=""02""&gt;&lt;/li&gt;
-		&lt;li data-target=""#carouselExampleIndicators"" data-slide-to=""03""&gt;&lt;/li&gt;
-	&lt;/ol&gt;
-	&lt;div class=""carousel-inner""&gt;
-		&lt;div class=""carousel-item active""&gt;&lt;img src=""fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0327-01.png"" class=""d-block w-100"" alt=""...""&gt;&lt;/div&gt;
-		&lt;div class=""carousel-item""&gt;&lt;img src=""fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0327-02.png"" class=""d-block w-100"" alt=""...""&gt;&lt;/div&gt;
-		&lt;div class=""carousel-item""&gt;&lt;img src=""fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0327-03.png"" class=""d-block w-100"" alt=""...""&gt;&lt;/div&gt;							
-	&lt;/div&gt;
-	&lt;a class=""carousel-control-prev"" href=""#carouselExampleIndicators-17-0327"" role=""button""	data-slide=""prev""&gt;
-		&lt;span class=""carousel-control-prev-icon"" aria-hidden=""true""&gt;&lt;/span&gt;
-		&lt;span class=""sr-only""&gt;Previous&lt;/span&gt;
-	&lt;/a&gt;
-	&lt;a class=""carousel-control-next"" href=""#carouselExampleIndicators-17-0327"" role=""button"" data-slide=""next""&gt;
-		&lt;span class=""carousel-control-next-icon"" aria-hidden=""true""&gt;&lt;/span&gt;
-		&lt;span class=""sr-only""&gt;Next&lt;/span&gt;
-	&lt;/a&gt;
-&lt;/div&gt;"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>歡迎馬艶華、羅靜春回台</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -819,6 +796,29 @@
   </si>
   <si>
     <t>2017-08</t>
+  </si>
+  <si>
+    <t>&lt;div id="carouselExampleIndicators-17-0327" class="carousel slide img-fluid" data-ride="carousel"&gt;
+	&lt;ol class="carousel-indicators"&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="01" class="active"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="02"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="03"&gt;&lt;/li&gt;												
+	&lt;/ol&gt;
+	&lt;div class="carousel-inner"&gt;
+		&lt;div class="carousel-item active"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0317-01.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0317-02.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0317-03.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;							
+	&lt;/div&gt;
+	&lt;a class="carousel-control-prev" href="#carouselExampleIndicators-17-0327" role="button"	data-slide="prev"&gt;
+		&lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+	&lt;/a&gt;
+	&lt;a class="carousel-control-next" href="#carouselExampleIndicators-17-0327" role="button" data-slide="next"&gt;
+		&lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
+	&lt;/a&gt;
+&lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1210,10 +1210,10 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11:B18"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="13" spans="1:8" ht="409.6">
       <c r="A13" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>54</v>
@@ -1548,9 +1548,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="409.6">
+    <row r="14" spans="1:8" ht="400">
       <c r="A14" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>54</v>
@@ -1568,99 +1568,99 @@
         <v>72</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="409.6">
       <c r="A15" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" s="3">
         <v>43034</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="409.6">
       <c r="A16" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="3">
         <v>43034</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="409.6">
       <c r="A17" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17" s="3">
         <v>43034</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="409.6">
       <c r="A18" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D18" s="3">
         <v>43034</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/db/NCCU-151-ClassmateRenuion.xlsx
+++ b/db/NCCU-151-ClassmateRenuion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73037D58-67BA-1149-A3C4-2D0C4A6AC4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCBA343-DDC3-BB46-9144-BB7ABAF69C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="560" windowWidth="39120" windowHeight="22480" xr2:uid="{2BBFF2CF-9D18-B644-8C97-C6A9FA422757}"/>
   </bookViews>
@@ -805,9 +805,9 @@
 		&lt;li data-target="#carouselExampleIndicators" data-slide-to="03"&gt;&lt;/li&gt;												
 	&lt;/ol&gt;
 	&lt;div class="carousel-inner"&gt;
-		&lt;div class="carousel-item active"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0317-01.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
-		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0317-02.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
-		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0317-03.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;							
+		&lt;div class="carousel-item active"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0327-01.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0327-02.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0327-03.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;							
 	&lt;/div&gt;
 	&lt;a class="carousel-control-prev" href="#carouselExampleIndicators-17-0327" role="button"	data-slide="prev"&gt;
 		&lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
@@ -1210,10 +1210,10 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>

--- a/db/NCCU-151-ClassmateRenuion.xlsx
+++ b/db/NCCU-151-ClassmateRenuion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCBA343-DDC3-BB46-9144-BB7ABAF69C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EAAFB8-60D3-7745-8D0F-8E7052CC93C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="560" windowWidth="39120" windowHeight="22480" xr2:uid="{2BBFF2CF-9D18-B644-8C97-C6A9FA422757}"/>
+    <workbookView xWindow="660" yWindow="560" windowWidth="39120" windowHeight="22480" xr2:uid="{2BBFF2CF-9D18-B644-8C97-C6A9FA422757}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="111">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -814,6 +814,145 @@
 		&lt;span class="sr-only"&gt;Previous&lt;/span&gt;
 	&lt;/a&gt;
 	&lt;a class="carousel-control-next" href="#carouselExampleIndicators-17-0327" role="button" data-slide="next"&gt;
+		&lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
+	&lt;/a&gt;
+&lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 歡迎林台珍回台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君悅酒店漂亮中餐廳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林台珍、王台鳳、陳玲美、 施紫玲、呂和美、林娟、丁志愛、 李素美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div id="carouselExampleIndicators-20-0102" class="carousel slide img-fluid" data-ride="carousel"&gt;
+	&lt;ol class="carousel-indicators"&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="01" class="active"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="02"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="03"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="04"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="05"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="06"&gt;&lt;/li&gt;												
+	&lt;/ol&gt;
+	&lt;div class="carousel-inner"&gt;
+		&lt;div class="carousel-item active"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2020-0102-01.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2020-0102-02.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2020-0102-03.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2020-0102-04.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2020-0102-05.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;								
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2020-0102-06.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;								
+	&lt;/div&gt;
+	&lt;a class="carousel-control-prev" href="#carouselExampleIndicators-20-0102" role="button"	data-slide="prev"&gt;
+		&lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+	&lt;/a&gt;
+	&lt;a class="carousel-control-next" href="#carouselExampleIndicators-20-0102" role="button" data-slide="next"&gt;
+		&lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
+	&lt;/a&gt;
+&lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>享用咖啡時光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soul素食餐廳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施紫玲、謝美玉、李素美、王台鳳、周成波、林孫源、孫全玉、陳玲美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div id="carouselExampleIndicators-15-0814" class="carousel slide img-fluid" data-ride="carousel"&gt;
+	&lt;ol class="carousel-indicators"&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="01" class="active"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="02"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="03"&gt;&lt;/li&gt;
+	&lt;/ol&gt;
+	&lt;div class="carousel-inner"&gt;
+		&lt;div class="carousel-item active"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2015-0814-01.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2015-0814-02.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2015-0814-03.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;														
+	&lt;/div&gt;
+	&lt;a class="carousel-control-prev" href="#carouselExampleIndicators-15-0814" role="button"	data-slide="prev"&gt;
+		&lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+	&lt;/a&gt;
+	&lt;a class="carousel-control-next" href="#carouselExampleIndicators-15-0814" role="button" data-slide="next"&gt;
+		&lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
+	&lt;/a&gt;
+&lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歡迎林台珍回台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜來登請客樓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏春梅、謝美玉、林娟、林台珍、施紫玲、〇董、李素美、王貽媺、梁海倫、陳玲美、林蓀源、周成波、〇〇〇、謝安城、尤錦堂、孫全玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div id="carouselExampleIndicators-15-0814" class="carousel slide img-fluid" data-ride="carousel"&gt;
+	&lt;ol class="carousel-indicators"&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="01" class="active"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="02"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="03"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="04"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="05"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="06"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="07"&gt;&lt;/li&gt;											
+	&lt;/ol&gt;
+	&lt;div class="carousel-inner"&gt;
+		&lt;div class="carousel-item active"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2015-0814-01.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2015-0814-02.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2015-0814-03.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2015-0814-04.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2015-0814-05.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;								
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2015-0814-06.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2015-0814-07.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;							
+	&lt;/div&gt;
+	&lt;a class="carousel-control-prev" href="#carouselExampleIndicators-15-0814" role="button"	data-slide="prev"&gt;
+		&lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+	&lt;/a&gt;
+	&lt;a class="carousel-control-next" href="#carouselExampleIndicators-15-0814" role="button" data-slide="next"&gt;
 		&lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
 		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
 	&lt;/a&gt;
@@ -1207,13 +1346,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D68409-2229-2B47-BB03-1F2924D40D6E}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1663,6 +1802,75 @@
         <v>86</v>
       </c>
     </row>
+    <row r="19" spans="1:8" ht="409.6">
+      <c r="A19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="3">
+        <v>43832</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="409.6">
+      <c r="A20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="3">
+        <v>42230</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="409.6">
+      <c r="A21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="3">
+        <v>42307</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db/NCCU-151-ClassmateRenuion.xlsx
+++ b/db/NCCU-151-ClassmateRenuion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EAAFB8-60D3-7745-8D0F-8E7052CC93C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB01C7B-B0E3-584F-BF06-071BAEF4AD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="560" windowWidth="39120" windowHeight="22480" xr2:uid="{2BBFF2CF-9D18-B644-8C97-C6A9FA422757}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="117">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -959,12 +959,85 @@
 &lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2018-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政大金融系六十周年活動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜來登大飯店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林孫源、孫全玉、陳玲美、施紫玲、謝美玉、呂和美、李素美、辜英齡、尤錦堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;div id="carouselExampleIndicators-18-0517" class="carousel slide img-fluid" data-ride="carousel"&gt;
+	&lt;ol class="carousel-indicators"&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="01" class="active"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="02"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="03"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="04"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="05"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="06"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="07"&gt;&lt;/li&gt;											
+	&lt;/ol&gt;
+	&lt;div class="carousel-inner"&gt;
+		&lt;div class="carousel-item active"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2018-0517-01.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2018-0517-02.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2018-0517-03.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2018-0517-04.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2018-0517-05.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;								
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2018-0517-06.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-20</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="楷體-繁 標準體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>18-0517</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="楷體-繁 標準體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>-07.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;							
+	&lt;/div&gt;
+	&lt;a class="carousel-control-prev" href="#carouselExampleIndicators-18-0517" role="button"	data-slide="prev"&gt;
+		&lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+	&lt;/a&gt;
+	&lt;a class="carousel-control-next" href="#carouselExampleIndicators-18-0517" role="button" data-slide="next"&gt;
+		&lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
+	&lt;/a&gt;
+&lt;/div&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -988,6 +1061,13 @@
       <charset val="136"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="楷體-繁 標準體"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="楷體-繁 標準體"/>
@@ -1346,13 +1426,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D68409-2229-2B47-BB03-1F2924D40D6E}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1617,125 +1697,125 @@
     </row>
     <row r="11" spans="1:8" ht="409.6">
       <c r="A11" s="2" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="D11" s="3">
-        <v>42815</v>
+        <v>43237</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="409.6">
       <c r="A12" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D12" s="3">
-        <v>42816</v>
+        <v>42815</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="409.6">
       <c r="A13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="3">
+        <v>42816</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="409.6">
+      <c r="A14" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="3">
-        <v>42789</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="400">
-      <c r="A14" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D14" s="3">
-        <v>42821</v>
+        <v>42789</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="409.6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="400">
       <c r="A15" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D15" s="3">
-        <v>43034</v>
+        <v>42821</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="409.6">
       <c r="A16" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>54</v>
@@ -1747,127 +1827,150 @@
         <v>43034</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="409.6">
       <c r="A17" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D17" s="3">
         <v>43034</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="409.6">
       <c r="A18" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D18" s="3">
         <v>43034</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="409.6">
       <c r="A19" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D19" s="3">
-        <v>43832</v>
+        <v>43034</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="409.6">
       <c r="A20" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D20" s="3">
-        <v>42230</v>
+        <v>43832</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="409.6">
       <c r="A21" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="3">
+        <v>42230</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="409.6">
+      <c r="A22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D22" s="3">
         <v>42307</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>110</v>
       </c>
     </row>

--- a/db/NCCU-151-ClassmateRenuion.xlsx
+++ b/db/NCCU-151-ClassmateRenuion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB01C7B-B0E3-584F-BF06-071BAEF4AD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAB782C-04B1-2B40-8420-2A71D1850FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="560" windowWidth="39120" windowHeight="22480" xr2:uid="{2BBFF2CF-9D18-B644-8C97-C6A9FA422757}"/>
   </bookViews>
@@ -926,37 +926,6 @@
   </si>
   <si>
     <t>魏春梅、謝美玉、林娟、林台珍、施紫玲、〇董、李素美、王貽媺、梁海倫、陳玲美、林蓀源、周成波、〇〇〇、謝安城、尤錦堂、孫全玉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div id="carouselExampleIndicators-15-0814" class="carousel slide img-fluid" data-ride="carousel"&gt;
-	&lt;ol class="carousel-indicators"&gt;
-		&lt;li data-target="#carouselExampleIndicators" data-slide-to="01" class="active"&gt;&lt;/li&gt;
-		&lt;li data-target="#carouselExampleIndicators" data-slide-to="02"&gt;&lt;/li&gt;
-		&lt;li data-target="#carouselExampleIndicators" data-slide-to="03"&gt;&lt;/li&gt;
-		&lt;li data-target="#carouselExampleIndicators" data-slide-to="04"&gt;&lt;/li&gt;
-		&lt;li data-target="#carouselExampleIndicators" data-slide-to="05"&gt;&lt;/li&gt;
-		&lt;li data-target="#carouselExampleIndicators" data-slide-to="06"&gt;&lt;/li&gt;
-		&lt;li data-target="#carouselExampleIndicators" data-slide-to="07"&gt;&lt;/li&gt;											
-	&lt;/ol&gt;
-	&lt;div class="carousel-inner"&gt;
-		&lt;div class="carousel-item active"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2015-0814-01.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
-		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2015-0814-02.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
-		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2015-0814-03.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
-		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2015-0814-04.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
-		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2015-0814-05.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;								
-		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2015-0814-06.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
-		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2015-0814-07.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;							
-	&lt;/div&gt;
-	&lt;a class="carousel-control-prev" href="#carouselExampleIndicators-15-0814" role="button"	data-slide="prev"&gt;
-		&lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
-		&lt;span class="sr-only"&gt;Previous&lt;/span&gt;
-	&lt;/a&gt;
-	&lt;a class="carousel-control-next" href="#carouselExampleIndicators-15-0814" role="button" data-slide="next"&gt;
-		&lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
-		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
-	&lt;/a&gt;
-&lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1030,6 +999,37 @@
 	&lt;/a&gt;
 &lt;/div&gt;</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div id="carouselExampleIndicators-15-1030" class="carousel slide img-fluid" data-ride="carousel"&gt;
+	&lt;ol class="carousel-indicators"&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="01" class="active"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="02"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="03"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="04"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="05"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="06"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="07"&gt;&lt;/li&gt;											
+	&lt;/ol&gt;
+	&lt;div class="carousel-inner"&gt;
+		&lt;div class="carousel-item active"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2015-1030-01.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2015-1030-02.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2015-1030-03.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2015-1030-04.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2015-1030-05.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;								
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2015-1030-06.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2015-1030-07.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;							
+	&lt;/div&gt;
+	&lt;a class="carousel-control-prev" href="#carouselExampleIndicators-15-1030" role="button"	data-slide="prev"&gt;
+		&lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+	&lt;/a&gt;
+	&lt;a class="carousel-control-next" href="#carouselExampleIndicators-15-1030" role="button" data-slide="next"&gt;
+		&lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
+	&lt;/a&gt;
+&lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1429,10 +1429,10 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1697,25 +1697,25 @@
     </row>
     <row r="11" spans="1:8" ht="409.6">
       <c r="A11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="D11" s="3">
         <v>43237</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="409.6">
@@ -1971,7 +1971,7 @@
         <v>109</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/db/NCCU-151-ClassmateRenuion.xlsx
+++ b/db/NCCU-151-ClassmateRenuion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAB782C-04B1-2B40-8420-2A71D1850FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1C7C68-F31D-F34F-9EC0-EF41E95FF9F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="560" windowWidth="39120" windowHeight="22480" xr2:uid="{2BBFF2CF-9D18-B644-8C97-C6A9FA422757}"/>
+    <workbookView xWindow="1180" yWindow="1020" windowWidth="39120" windowHeight="22480" xr2:uid="{2BBFF2CF-9D18-B644-8C97-C6A9FA422757}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="133">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -796,29 +796,6 @@
   </si>
   <si>
     <t>2017-08</t>
-  </si>
-  <si>
-    <t>&lt;div id="carouselExampleIndicators-17-0327" class="carousel slide img-fluid" data-ride="carousel"&gt;
-	&lt;ol class="carousel-indicators"&gt;
-		&lt;li data-target="#carouselExampleIndicators" data-slide-to="01" class="active"&gt;&lt;/li&gt;
-		&lt;li data-target="#carouselExampleIndicators" data-slide-to="02"&gt;&lt;/li&gt;
-		&lt;li data-target="#carouselExampleIndicators" data-slide-to="03"&gt;&lt;/li&gt;												
-	&lt;/ol&gt;
-	&lt;div class="carousel-inner"&gt;
-		&lt;div class="carousel-item active"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0327-01.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
-		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0327-02.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
-		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0327-03.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;							
-	&lt;/div&gt;
-	&lt;a class="carousel-control-prev" href="#carouselExampleIndicators-17-0327" role="button"	data-slide="prev"&gt;
-		&lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
-		&lt;span class="sr-only"&gt;Previous&lt;/span&gt;
-	&lt;/a&gt;
-	&lt;a class="carousel-control-next" href="#carouselExampleIndicators-17-0327" role="button" data-slide="next"&gt;
-		&lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
-		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
-	&lt;/a&gt;
-&lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2020-01</t>
@@ -1026,6 +1003,172 @@
 		&lt;span class="sr-only"&gt;Previous&lt;/span&gt;
 	&lt;/a&gt;
 	&lt;a class="carousel-control-next" href="#carouselExampleIndicators-15-1030" role="button" data-slide="next"&gt;
+		&lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
+	&lt;/a&gt;
+&lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何宜浩夫婦、陳友福夫婦、尤錦堂、 黃秋光、王〇〇、嚴建三、林孫源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div id="carouselExampleIndicators-17-0327" class="carousel slide img-fluid" data-ride="carousel"&gt;
+	&lt;ol class="carousel-indicators"&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="01" class="active"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="02"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="03"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="04"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="05"&gt;&lt;/li&gt;												
+	&lt;/ol&gt;
+	&lt;div class="carousel-inner"&gt;
+		&lt;div class="carousel-item active"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0327-01.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0327-02.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0327-03.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0327-04.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0327-05.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;								
+	&lt;/div&gt;
+	&lt;a class="carousel-control-prev" href="#carouselExampleIndicators-17-0327" role="button"	data-slide="prev"&gt;
+		&lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+	&lt;/a&gt;
+	&lt;a class="carousel-control-next" href="#carouselExampleIndicators-17-0327" role="button" data-slide="next"&gt;
+		&lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
+	&lt;/a&gt;
+&lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淡水一日遊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅毛城、雲門、福容飯店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何宜浩夫婦、陳永福夫婦、王〇〇、王台鳯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div id="carouselExampleIndicators-17-0326" class="carousel slide img-fluid" data-ride="carousel"&gt;
+	&lt;ol class="carousel-indicators"&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="01" class="active"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="02"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="03"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="04"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="05"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="06"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="07"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="08"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="09"&gt;&lt;/li&gt;												
+	&lt;/ol&gt;
+	&lt;div class="carousel-inner"&gt;
+		&lt;div class="carousel-item active"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0326-01.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0326-02.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0326-03.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0326-04.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0326-05.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0326-06.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0326-07.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0326-08.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0326-09.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;									
+	&lt;/div&gt;
+	&lt;a class="carousel-control-prev" href="#carouselExampleIndicators-17-0326" role="button"	data-slide="prev"&gt;
+		&lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+	&lt;/a&gt;
+	&lt;a class="carousel-control-next" href="#carouselExampleIndicators-17-0326" role="button" data-slide="next"&gt;
+		&lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
+	&lt;/a&gt;
+&lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台北一日遊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上引水產</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何宜浩夫婦、陳永福夫婦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div id="carouselExampleIndicators-17-0327b" class="carousel slide img-fluid" data-ride="carousel"&gt;
+	&lt;ol class="carousel-indicators"&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="01" class="active"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="02"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="03"&gt;&lt;/li&gt;									
+	&lt;/ol&gt;
+	&lt;div class="carousel-inner"&gt;
+		&lt;div class="carousel-item active"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0327b-01.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0327b-02.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-0327b-03.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;							
+	&lt;/div&gt;
+	&lt;a class="carousel-control-prev" href="#carouselExampleIndicators-17-0327b" role="button"	data-slide="prev"&gt;
+		&lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+	&lt;/a&gt;
+	&lt;a class="carousel-control-next" href="#carouselExampleIndicators-17-0327b" role="button" data-slide="next"&gt;
+		&lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
+	&lt;/a&gt;
+&lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歡迎羅靜春回台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福容飯店台北館,  SoGo復興一日遊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黎銀妹、林台珍、羅靜春、 王台鳳、李素美、陳玲美、林娟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div id="carouselExampleIndicators-17-1101" class="carousel slide img-fluid" data-ride="carousel"&gt;
+	&lt;ol class="carousel-indicators"&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="01" class="active"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="02"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="03"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="04"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="05"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="06"&gt;&lt;/li&gt;												
+	&lt;/ol&gt;
+	&lt;div class="carousel-inner"&gt;
+		&lt;div class="carousel-item active"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-1101-01.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-1101-02.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-1101-03.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-1101-04.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-1101-05.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;								
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2017-1101-06.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;								
+	&lt;/div&gt;
+	&lt;a class="carousel-control-prev" href="#carouselExampleIndicators-17-1101" role="button"	data-slide="prev"&gt;
+		&lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+	&lt;/a&gt;
+	&lt;a class="carousel-control-next" href="#carouselExampleIndicators-17-1101" role="button" data-slide="next"&gt;
 		&lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
 		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
 	&lt;/a&gt;
@@ -1426,13 +1569,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D68409-2229-2B47-BB03-1F2924D40D6E}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane xSplit="8" ySplit="1" topLeftCell="I22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1697,25 +1840,25 @@
     </row>
     <row r="11" spans="1:8" ht="409.6">
       <c r="A11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="D11" s="3">
         <v>43237</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="409.6">
@@ -1790,187 +1933,276 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="400">
+    <row r="15" spans="1:8" ht="409.6">
       <c r="A15" s="2" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="D15" s="3">
+        <v>42820</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="400">
+      <c r="A16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="3">
         <v>42821</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="409.6">
-      <c r="A16" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="3">
-        <v>43034</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="409.6">
       <c r="A17" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D17" s="3">
-        <v>43034</v>
+        <v>42821</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="409.6">
       <c r="A18" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D18" s="3">
         <v>43034</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="409.6">
       <c r="A19" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D19" s="3">
         <v>43034</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="409.6">
       <c r="A20" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D20" s="3">
-        <v>43832</v>
+        <v>43034</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="409.6">
       <c r="A21" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="D21" s="3">
-        <v>42230</v>
+        <v>43034</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="409.6">
       <c r="A22" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" s="3">
+        <v>43040</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="409.6">
+      <c r="A23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="3">
+        <v>43832</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="409.6">
+      <c r="A24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="3">
+        <v>42230</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="409.6">
+      <c r="A25" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="D25" s="3">
+        <v>42307</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="3">
-        <v>42307</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H22" s="2" t="s">
+      <c r="H25" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="60">
+      <c r="A26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="3">
+        <v>42821</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>116</v>
       </c>
     </row>

--- a/db/NCCU-151-ClassmateRenuion.xlsx
+++ b/db/NCCU-151-ClassmateRenuion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1C7C68-F31D-F34F-9EC0-EF41E95FF9F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED5AF5A-250F-A04A-A818-13533D8811DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1020" windowWidth="39120" windowHeight="22480" xr2:uid="{2BBFF2CF-9D18-B644-8C97-C6A9FA422757}"/>
+    <workbookView xWindow="840" yWindow="560" windowWidth="39120" windowHeight="22480" xr2:uid="{2BBFF2CF-9D18-B644-8C97-C6A9FA422757}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="132">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1007,10 +1007,6 @@
 		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
 	&lt;/a&gt;
 &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何宜浩夫婦、陳友福夫婦、尤錦堂、 黃秋光、王〇〇、嚴建三、林孫源</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1569,13 +1565,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D68409-2229-2B47-BB03-1F2924D40D6E}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomRight" activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1935,48 +1931,48 @@
     </row>
     <row r="15" spans="1:8" ht="409.6">
       <c r="A15" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D15" s="3">
         <v>42820</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="400">
       <c r="A16" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D16" s="3">
         <v>42821</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="409.6">
@@ -1999,7 +1995,7 @@
         <v>72</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="409.6">
@@ -2096,25 +2092,25 @@
     </row>
     <row r="22" spans="1:8" ht="409.6">
       <c r="A22" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D22" s="3">
         <v>43040</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="409.6">
@@ -2184,26 +2180,6 @@
       </c>
       <c r="H25" s="2" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="60">
-      <c r="A26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="3">
-        <v>42821</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/db/NCCU-151-ClassmateRenuion.xlsx
+++ b/db/NCCU-151-ClassmateRenuion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED5AF5A-250F-A04A-A818-13533D8811DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C44FF6-ABEF-AA43-A53E-290E70852607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="560" windowWidth="39120" windowHeight="22480" xr2:uid="{2BBFF2CF-9D18-B644-8C97-C6A9FA422757}"/>
+    <workbookView xWindow="820" yWindow="560" windowWidth="39120" windowHeight="22480" xr2:uid="{2BBFF2CF-9D18-B644-8C97-C6A9FA422757}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -121,10 +121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>孫全玉、林蓀源、陳莉莉、丁志愛、李素美、林娟、陳玲美、施紫玲、王台鳳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>陳莉莉返台。在校時，形影相隨的三劍客丁志愛作東請客招待接風。我們作陪。飯後隨到貴婦百貨去散步。在裝置藝術前留影紀念。我們充當貴婦。知名的厲家菜，下次來嚐嚐。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,10 +211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>林娟、黃和平、謝美玉、黎銀妺、呂和美、辜英齡、王貽媺、 林蓀源、李素美夫婦、林台珍夫婦、尤錦堂、孫全玉、穎君</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;div id="carouselExampleIndicators-01-04" class="carousel slide img-fluid" data-ride="carousel"&gt;
 	&lt;ol class="carousel-indicators"&gt;
 		&lt;li data-target="#carouselExampleIndicators" data-slide-to="01" class="active"&gt;&lt;/li&gt;
@@ -247,10 +239,6 @@
   </si>
   <si>
     <t>羅靜春回台聚會</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>張春雄老師&amp;師母、羅靜春、孫全玉、林蓀源、尤錦堂、周成波、黃和平、林娟、李素美、陳玲美、王玲、施紫玲、辜英齡、呂和美、謝美玉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -628,10 +616,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>何宜浩夫婦、陳友福夫婦、尤錦堂、 黃秋光、王〇〇、嚴建三、林蓀源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>歡迎馬艶華、羅靜春回台</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -747,10 +731,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>林台珍、施紫玲、穎君、呂和美、曾寶鳳、馬艶華、謝美玉、羅靜春、蔡錦麗、林娟、李素美、陳玲美、黃和平、王玲、丁志愛、尤錦堂、王文枝、謝安城、辜英齡、王貽媺、孫全玉、周成波、吳盛賢、林蓀源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;div id="carouselExampleIndicators-17-1026d" class="carousel slide img-fluid" data-ride="carousel"&gt;
 	&lt;ol class="carousel-indicators"&gt;
 		&lt;li data-target="#carouselExampleIndicators" data-slide-to="31" class="active"&gt;&lt;/li&gt;
@@ -899,10 +879,6 @@
   </si>
   <si>
     <t>喜來登請客樓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魏春梅、謝美玉、林娟、林台珍、施紫玲、〇董、李素美、王貽媺、梁海倫、陳玲美、林蓀源、周成波、〇〇〇、謝安城、尤錦堂、孫全玉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1169,6 +1145,30 @@
 		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
 	&lt;/a&gt;
 &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孫全玉、林孫源、陳莉莉、丁志愛、李素美、林娟、陳玲美、施紫玲、王台鳳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林娟、黃和平、謝美玉、黎銀妺、呂和美、辜英齡、王貽媺、 林孫源、李素美夫婦、林台珍夫婦、尤錦堂、孫全玉、穎君</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張春雄老師&amp;師母、羅靜春、孫全玉、+F17、尤錦堂、周成波、黃和平、林娟、李素美、陳玲美、王玲、施紫玲、辜英齡、呂和美、謝美玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何宜浩夫婦、陳友福夫婦、尤錦堂、 黃秋光、王〇〇、嚴建三、林孫源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林台珍、施紫玲、穎君、呂和美、曾寶鳳、馬艶華、謝美玉、羅靜春、蔡錦麗、林娟、李素美、陳玲美、黃和平、王玲、丁志愛、尤錦堂、王文枝、謝安城、辜英齡、王貽媺、孫全玉、周成波、吳盛賢、林孫源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏春梅、謝美玉、林娟、林台珍、施紫玲、〇董、李素美、王貽媺、梁海倫、陳玲美、林孫源、周成波、〇〇〇、謝安城、尤錦堂、孫全玉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1568,10 +1568,10 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A26" sqref="A26:XFD26"/>
+      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="2" spans="1:8" ht="409.6">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B2" s="4">
         <v>2018</v>
@@ -1643,7 +1643,7 @@
     </row>
     <row r="3" spans="1:8" ht="409.6">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B3" s="4">
         <v>2018</v>
@@ -1658,528 +1658,528 @@
         <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="409.6">
       <c r="A4" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4" s="4">
         <v>2018</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3">
         <v>43356</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="409.6">
       <c r="A5" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B5" s="4">
         <v>2018</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3">
         <v>43357</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="409.6">
       <c r="A6" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B6" s="4">
         <v>2018</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" s="3">
         <v>43404</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="409.6">
       <c r="A7" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B7" s="4">
         <v>2018</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3">
         <v>43426</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="409.6">
       <c r="A8" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B8" s="4">
         <v>2018</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D8" s="3">
         <v>43408</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="H8" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="409.6">
       <c r="A9" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B9" s="4">
         <v>2018</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D9" s="3">
         <v>43409</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="409.6">
       <c r="A10" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B10" s="4">
         <v>2018</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D10" s="3">
         <v>43438</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="409.6">
       <c r="A11" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D11" s="3">
         <v>43237</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="409.6">
       <c r="A12" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="D12" s="3">
         <v>42815</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="409.6">
       <c r="A13" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D13" s="3">
         <v>42816</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="409.6">
       <c r="A14" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D14" s="3">
         <v>42789</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="409.6">
       <c r="A15" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D15" s="3">
         <v>42820</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="400">
       <c r="A16" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D16" s="3">
         <v>42821</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="409.6">
       <c r="A17" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D17" s="3">
         <v>42821</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="409.6">
       <c r="A18" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D18" s="3">
         <v>43034</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="409.6">
       <c r="A19" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D19" s="3">
         <v>43034</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="409.6">
       <c r="A20" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D20" s="3">
         <v>43034</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="409.6">
       <c r="A21" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D21" s="3">
         <v>43034</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="409.6">
       <c r="A22" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D22" s="3">
         <v>43040</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="409.6">
       <c r="A23" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D23" s="3">
         <v>43832</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="409.6">
       <c r="A24" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D24" s="3">
         <v>42230</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="409.6">
       <c r="A25" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D25" s="3">
         <v>42307</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/db/NCCU-151-ClassmateRenuion.xlsx
+++ b/db/NCCU-151-ClassmateRenuion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C44FF6-ABEF-AA43-A53E-290E70852607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7CF2F7-C84A-2648-AF23-7A85CD993EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="560" windowWidth="39120" windowHeight="22480" xr2:uid="{2BBFF2CF-9D18-B644-8C97-C6A9FA422757}"/>
+    <workbookView xWindow="700" yWindow="1600" windowWidth="39120" windowHeight="22480" xr2:uid="{2BBFF2CF-9D18-B644-8C97-C6A9FA422757}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="184">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1169,6 +1169,447 @@
   </si>
   <si>
     <t>魏春梅、謝美玉、林娟、林台珍、施紫玲、〇董、李素美、王貽媺、梁海倫、陳玲美、林孫源、周成波、〇〇〇、謝安城、尤錦堂、孫全玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美福飯店潮粵坊吃烤鴨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李素美、陳玲美、王台鳯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花東旅遊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04/27-30 花東旅遊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同學一起去花東旅遊。遊覽太魯閣、清水斷崖、雲山水、石梯坪，七星潭住在蝴蝶谷。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div id="carouselExampleIndicators-16-0427" class="carousel slide img-fluid" data-ride="carousel"&gt;
+	&lt;ol class="carousel-indicators"&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="01" class="active"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="02"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="03"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="04"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="05"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="06"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="07"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="08"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="09"&gt;&lt;/li&gt;											
+	&lt;/ol&gt;
+	&lt;div class="carousel-inner"&gt;
+		&lt;div class="carousel-item active"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2016-0427-01.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2016-0427-02.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2016-0427-03.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2016-0427-04.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2016-0427-05.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;								
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2016-0427-06.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2016-0427-07.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2016-0427-08.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;								
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2016-0427-09.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;							
+	&lt;/div&gt;
+	&lt;a class="carousel-control-prev" href="#carouselExampleIndicators-16-0427" role="button"	data-slide="prev"&gt;
+		&lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+	&lt;/a&gt;
+	&lt;a class="carousel-control-next" href="#carouselExampleIndicators-16-0427" role="button" data-slide="next"&gt;
+		&lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
+	&lt;/a&gt;
+&lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div id="carouselExampleIndicators-21-0429" class="carousel slide img-fluid" data-ride="carousel"&gt;
+	&lt;ol class="carousel-indicators"&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="01" class="active"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="02"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="03"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="04"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="05"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="06"&gt;&lt;/li&gt;										
+	&lt;/ol&gt;
+	&lt;div class="carousel-inner"&gt;
+		&lt;div class="carousel-item active"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2021-0429-01.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2021-0429-02.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2021-0429-03.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2021-0429-04.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2021-0429-05.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;								
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2021-0429-06.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;							
+	&lt;/div&gt;
+	&lt;a class="carousel-control-prev" href="#carouselExampleIndicators-21-0429" role="button"	data-slide="prev"&gt;
+		&lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+	&lt;/a&gt;
+	&lt;a class="carousel-control-next" href="#carouselExampleIndicators-21-0429" role="button" data-slide="next"&gt;
+		&lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
+	&lt;/a&gt;
+&lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那米哥俱樂部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何宜浩夫人、陳友福夫人、何慕瑾、呂和美、陳友福、林蓀源、何宜浩、辜英齡、曾寶鳳、施紫玲、謝美玉、林娟、丁志愛、李素美、王貽媺、黎銀妹、王台鳳、陳玲美、孫全玉、尤錦堂、黃秋光、王〇〇、周成波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div id="carouselExampleIndicators-16-0430" class="carousel slide img-fluid" data-ride="carousel"&gt;
+	&lt;ol class="carousel-indicators"&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="01" class="active"&gt;&lt;/li&gt;
+	&lt;/ol&gt;
+	&lt;div class="carousel-inner"&gt;
+		&lt;div class="carousel-item active"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2016-0430-01.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+	&lt;/div&gt;
+	&lt;a class="carousel-control-prev" href="#carouselExampleIndicators-16-0430" role="button"	data-slide="prev"&gt;
+		&lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+	&lt;/a&gt;
+	&lt;a class="carousel-control-next" href="#carouselExampleIndicators-16-0430" role="button" data-slide="next"&gt;
+		&lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
+	&lt;/a&gt;
+&lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同學會</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真書軒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「真書軒」鄰近大安森林公園。勤美美術館在台北的會館。內部陳列圖書及畫作。非常有文藝氣息，在此開同學會，大家都顕現非常有氣質。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呂和美、黎銀妹、曾寶鳳、謝美玉、孫全玉 、張春雄老師、陳玲美、施紫玲、辜英齢、何慕瑾、周成波、丁志愛、李素美、吳盛賢、王文枝、古富其、嚴建三、謝安城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div id="carouselExampleIndicators-16-0727" class="carousel slide img-fluid" data-ride="carousel"&gt;
+	&lt;ol class="carousel-indicators"&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="01" class="active"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="02"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="03"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="04"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="05"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="06"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="07"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="08"&gt;&lt;/li&gt;										
+	&lt;/ol&gt;
+	&lt;div class="carousel-inner"&gt;
+		&lt;div class="carousel-item active"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2016-0727-01.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2016-0727-02.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2016-0727-03.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2016-0727-04.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2016-0727-05.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;								
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2016-0727-06.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2016-0727-07.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2016-0727-08.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;														
+	&lt;/div&gt;
+	&lt;a class="carousel-control-prev" href="#carouselExampleIndicators-16-0727" role="button"	data-slide="prev"&gt;
+		&lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+	&lt;/a&gt;
+	&lt;a class="carousel-control-next" href="#carouselExampleIndicators-16-0727" role="button" data-slide="next"&gt;
+		&lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
+	&lt;/a&gt;
+&lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淡水紅樹林歡唱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黎銀妺寓所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林台珍及夫婿、謝美玉及夫婿、林孫源、呂和美及夫婿、林娟、王貽媺及夫婿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div id="carouselExampleIndicators-16-1020" class="carousel slide img-fluid" data-ride="carousel"&gt;
+	&lt;ol class="carousel-indicators"&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="01" class="active"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="02"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="03"&gt;&lt;/li&gt;										
+	&lt;/ol&gt;
+	&lt;div class="carousel-inner"&gt;
+		&lt;div class="carousel-item active"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2016-1020-01.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2016-1020-02.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2016-1020-03.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+	&lt;/div&gt;
+	&lt;a class="carousel-control-prev" href="#carouselExampleIndicators-16-1020" role="button"	data-slide="prev"&gt;
+		&lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+	&lt;/a&gt;
+	&lt;a class="carousel-control-next" href="#carouselExampleIndicators-16-1020" role="button" data-slide="next"&gt;
+		&lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
+	&lt;/a&gt;
+&lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台灣東北角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黎銀妹及夫婿、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div id="carouselExampleIndicators-16-1019" class="carousel slide img-fluid" data-ride="carousel"&gt;
+	&lt;ol class="carousel-indicators"&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="01" class="active"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="02"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="03"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="04"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="05"&gt;&lt;/li&gt;										
+	&lt;/ol&gt;
+	&lt;div class="carousel-inner"&gt;
+		&lt;div class="carousel-item active"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2016-1019-01.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2016-1019-02.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2016-1019-03.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2016-1019-04.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2016-1019-05.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+	&lt;/div&gt;
+	&lt;a class="carousel-control-prev" href="#carouselExampleIndicators-16-1019" role="button"	data-slide="prev"&gt;
+		&lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+	&lt;/a&gt;
+	&lt;a class="carousel-control-next" href="#carouselExampleIndicators-16-1019" role="button" data-slide="next"&gt;
+		&lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
+	&lt;/a&gt;
+&lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福容飯店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福容飯店聚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辜英齡、林娟、魏春梅、李素美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div id="carouselExampleIndicators-16-1019b" class="carousel slide img-fluid" data-ride="carousel"&gt;
+	&lt;ol class="carousel-indicators"&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="01" class="active"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="02"&gt;&lt;/li&gt;
+	&lt;/ol&gt;
+	&lt;div class="carousel-inner"&gt;
+		&lt;div class="carousel-item active"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2016-1019-11.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2016-1019-12.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;													
+	&lt;/div&gt;
+	&lt;a class="carousel-control-prev" href="#carouselExampleIndicators-16-1019b" role="button"	data-slide="prev"&gt;
+		&lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+	&lt;/a&gt;
+	&lt;a class="carousel-control-next" href="#carouselExampleIndicators-16-1019b" role="button" data-slide="next"&gt;
+		&lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
+	&lt;/a&gt;
+&lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歡迎宋小瑩回台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bellavita廣塲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 李素美、黃和平、丁志愛、宋小瑩、林娟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div id="carouselExampleIndicators-19-1025" class="carousel slide img-fluid" data-ride="carousel"&gt;
+	&lt;ol class="carousel-indicators"&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="01" class="active"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="02"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="03"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="04"&gt;&lt;/li&gt;		
+	&lt;/ol&gt;
+	&lt;div class="carousel-inner"&gt;
+		&lt;div class="carousel-item active"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2019-1025-01.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2019-1025-02.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2019-1025-03.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2019-1025-04.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;													
+	&lt;/div&gt;
+	&lt;a class="carousel-control-prev" href="#carouselExampleIndicators-19-1025" role="button"	data-slide="prev"&gt;
+		&lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+	&lt;/a&gt;
+	&lt;a class="carousel-control-next" href="#carouselExampleIndicators-19-1025" role="button" data-slide="next"&gt;
+		&lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
+	&lt;/a&gt;
+&lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厲家菜 宮廷御膳料理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厲家菜聚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">宋小瑩、丁志愛、呂和美、李素美、 林娟、王台鳳、謝美玉、施紫玲、陳玲美、黃和平
+       </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div id="carouselExampleIndicators-19-1025b" class="carousel slide img-fluid" data-ride="carousel"&gt;
+	&lt;ol class="carousel-indicators"&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="01" class="active"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="02"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="03"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="04"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="05"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="06"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="07"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="08"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="09"&gt;&lt;/li&gt;		
+	&lt;/ol&gt;
+	&lt;div class="carousel-inner"&gt;
+		&lt;div class="carousel-item active"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2019-1025-11.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2019-1025-12.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2019-1025-13.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2019-1025-14.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2019-1025-15.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2019-1025-16.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2019-1025-17.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2019-1025-18.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2019-1025-19.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;														
+	&lt;/div&gt;
+	&lt;a class="carousel-control-prev" href="#carouselExampleIndicators-19-1025b" role="button"	data-slide="prev"&gt;
+		&lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+	&lt;/a&gt;
+	&lt;a class="carousel-control-next" href="#carouselExampleIndicators-19-1025b" role="button" data-slide="next"&gt;
+		&lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
+	&lt;/a&gt;
+&lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯布雄法式餐廳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯布雄法式餐廳聚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 宋小瑩、丁志愛、呂和美、李素美、林娟、王台鳳、謝美玉、施紫玲、  陳玲美、黃和平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div id="carouselExampleIndicators-19-1025c" class="carousel slide img-fluid" data-ride="carousel"&gt;
+	&lt;ol class="carousel-indicators"&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="01" class="active"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="02"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="03"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="04"&gt;&lt;/li&gt;
+	&lt;/ol&gt;
+	&lt;div class="carousel-inner"&gt;
+		&lt;div class="carousel-item active"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2019-1025-21.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2019-1025-22.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2019-1025-23.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2019-1025-24.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+	&lt;/div&gt;
+	&lt;a class="carousel-control-prev" href="#carouselExampleIndicators-19-1025c" role="button"	data-slide="prev"&gt;
+		&lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+	&lt;/a&gt;
+	&lt;a class="carousel-control-next" href="#carouselExampleIndicators-19-1025c" role="button" data-slide="next"&gt;
+		&lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
+	&lt;/a&gt;
+&lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1565,13 +2006,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D68409-2229-2B47-BB03-1F2924D40D6E}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -2182,6 +2623,239 @@
         <v>109</v>
       </c>
     </row>
+    <row r="26" spans="1:8" ht="409.6">
+      <c r="A26" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="3">
+        <v>44315</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="409.6">
+      <c r="A27" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="3">
+        <v>42487</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="360">
+      <c r="A28" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="3">
+        <v>42490</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="409.6">
+      <c r="A29" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" s="3">
+        <v>42578</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="409.6">
+      <c r="A30" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D30" s="3">
+        <v>42663</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="409.6">
+      <c r="A31" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D31" s="3">
+        <v>42662</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="380">
+      <c r="A32" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D32" s="3">
+        <v>42662</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="409.6">
+      <c r="A33" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D33" s="3">
+        <v>43763</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="409.6">
+      <c r="A34" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="3">
+        <v>43763</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="409.6">
+      <c r="A35" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D35" s="3">
+        <v>43763</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db/NCCU-151-ClassmateRenuion.xlsx
+++ b/db/NCCU-151-ClassmateRenuion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7CF2F7-C84A-2648-AF23-7A85CD993EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CED4279-0AF7-0449-B26B-F2617AA3343E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="1600" windowWidth="39120" windowHeight="22480" xr2:uid="{2BBFF2CF-9D18-B644-8C97-C6A9FA422757}"/>
+    <workbookView xWindow="2980" yWindow="3440" windowWidth="39120" windowHeight="22480" xr2:uid="{2BBFF2CF-9D18-B644-8C97-C6A9FA422757}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -1160,10 +1160,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>何宜浩夫婦、陳友福夫婦、尤錦堂、 黃秋光、王〇〇、嚴建三、林孫源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>林台珍、施紫玲、穎君、呂和美、曾寶鳳、馬艶華、謝美玉、羅靜春、蔡錦麗、林娟、李素美、陳玲美、黃和平、王玲、丁志愛、尤錦堂、王文枝、謝安城、辜英齡、王貽媺、孫全玉、周成波、吳盛賢、林孫源</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1610,6 +1606,10 @@
 		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
 	&lt;/a&gt;
 &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何宜浩夫婦、陳友福夫婦、尤錦堂、黃秋光、李祖祥、嚴建三、林孫源</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2009,10 +2009,10 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -2433,7 +2433,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>110</v>
@@ -2525,7 +2525,7 @@
         <v>80</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>81</v>
@@ -2617,7 +2617,7 @@
         <v>102</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>109</v>
@@ -2625,10 +2625,10 @@
     </row>
     <row r="26" spans="1:8" ht="409.6">
       <c r="A26" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>33</v>
@@ -2637,223 +2637,223 @@
         <v>44315</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="H26" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="409.6">
       <c r="A27" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="C27" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D27" s="3">
         <v>42487</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G27" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="360">
       <c r="A28" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D28" s="3">
         <v>42490</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F28" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="409.6">
       <c r="A29" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="D29" s="3">
         <v>42578</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="409.6">
       <c r="A30" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="D30" s="3">
         <v>42663</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="409.6">
       <c r="A31" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="D31" s="3">
         <v>42662</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="380">
       <c r="A32" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D32" s="3">
         <v>42662</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F32" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="409.6">
       <c r="A33" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C33" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="D33" s="3">
         <v>43763</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="409.6">
       <c r="A34" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D34" s="3">
         <v>43763</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F34" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="409.6">
       <c r="A35" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D35" s="3">
         <v>43763</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F35" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/db/NCCU-151-ClassmateRenuion.xlsx
+++ b/db/NCCU-151-ClassmateRenuion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CED4279-0AF7-0449-B26B-F2617AA3343E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27E225B-D0AB-6E48-8C56-7C5EA79CA333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2980" yWindow="3440" windowWidth="39120" windowHeight="22480" xr2:uid="{2BBFF2CF-9D18-B644-8C97-C6A9FA422757}"/>
+    <workbookView xWindow="820" yWindow="560" windowWidth="39120" windowHeight="22480" xr2:uid="{2BBFF2CF-9D18-B644-8C97-C6A9FA422757}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -1025,10 +1025,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>何宜浩夫婦、陳永福夫婦、王〇〇、王台鳯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;div id="carouselExampleIndicators-17-0326" class="carousel slide img-fluid" data-ride="carousel"&gt;
 	&lt;ol class="carousel-indicators"&gt;
 		&lt;li data-target="#carouselExampleIndicators" data-slide-to="01" class="active"&gt;&lt;/li&gt;
@@ -1610,6 +1606,10 @@
   </si>
   <si>
     <t>何宜浩夫婦、陳友福夫婦、尤錦堂、黃秋光、李祖祥、嚴建三、林孫源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何宜浩夫婦、陳永福夫婦、李祖祥、王台鳯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2009,10 +2009,10 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -2099,7 +2099,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>15</v>
@@ -2151,7 +2151,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>24</v>
@@ -2174,7 +2174,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>26</v>
@@ -2387,33 +2387,33 @@
         <v>113</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="400">
       <c r="A16" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D16" s="3">
         <v>42821</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="409.6">
@@ -2433,7 +2433,7 @@
         <v>68</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>110</v>
@@ -2525,7 +2525,7 @@
         <v>80</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>81</v>
@@ -2533,25 +2533,25 @@
     </row>
     <row r="22" spans="1:8" ht="409.6">
       <c r="A22" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D22" s="3">
         <v>43040</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="409.6">
@@ -2617,7 +2617,7 @@
         <v>102</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>109</v>
@@ -2625,10 +2625,10 @@
     </row>
     <row r="26" spans="1:8" ht="409.6">
       <c r="A26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>33</v>
@@ -2637,223 +2637,223 @@
         <v>44315</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="H26" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="409.6">
       <c r="A27" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>136</v>
-      </c>
       <c r="C27" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D27" s="3">
         <v>42487</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G27" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="360">
       <c r="A28" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D28" s="3">
         <v>42490</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F28" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="409.6">
       <c r="A29" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="D29" s="3">
         <v>42578</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="409.6">
       <c r="A30" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="D30" s="3">
         <v>42663</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="409.6">
       <c r="A31" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="D31" s="3">
         <v>42662</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="380">
       <c r="A32" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D32" s="3">
         <v>42662</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F32" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="409.6">
       <c r="A33" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C33" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="D33" s="3">
         <v>43763</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="409.6">
       <c r="A34" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D34" s="3">
         <v>43763</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F34" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="409.6">
       <c r="A35" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D35" s="3">
         <v>43763</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F35" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/db/NCCU-151-ClassmateRenuion.xlsx
+++ b/db/NCCU-151-ClassmateRenuion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/Documents/92_WebSite/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27E225B-D0AB-6E48-8C56-7C5EA79CA333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B507F06-926A-6844-86AE-B9F4195A4C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="560" windowWidth="39120" windowHeight="22480" xr2:uid="{2BBFF2CF-9D18-B644-8C97-C6A9FA422757}"/>
+    <workbookView xWindow="1060" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{2BBFF2CF-9D18-B644-8C97-C6A9FA422757}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="194">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1610,6 +1610,136 @@
   </si>
   <si>
     <t>何宜浩夫婦、陳永福夫婦、李祖祥、王台鳯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貴婦百貨BELLAVITA 寶麗廣塲
+ 厲家菜宮廷御膳料理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12.林台珍夫婦
+3.柯可君
+4.林娟
+5.李素美
+6.陳玲美
+7.施紫玲
+8.孫全玉
+9.王台鳳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div id="carouselExampleIndicators-22-1109" class="carousel slide img-fluid" data-ride="carousel"&gt;
+	&lt;ol class="carousel-indicators"&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="01" class="active"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="02"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="03"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="04"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="05"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="06"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="07"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="08"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="09"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="11"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="12"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="13"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="14"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="15"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="16"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="17"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="18"&gt;&lt;/li&gt;	
+	&lt;/ol&gt;
+	&lt;div class="carousel-inner"&gt;
+		&lt;div class="carousel-item active"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1109-01.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1109-02.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1109-03.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1109-04.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1109-05.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1109-06.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1109-07.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1109-08.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1109-09.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1109-10.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;	
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1109-11.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1109-12.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1109-13.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1109-14.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1109-15.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1109-16.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1109-17.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1109-18.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;													
+	&lt;/div&gt;
+	&lt;a class="carousel-control-prev" href="#carouselExampleIndicators-22-1109" role="button"	data-slide="prev"&gt;
+		&lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+	&lt;/a&gt;
+	&lt;a class="carousel-control-next" href="#carouselExampleIndicators-22-1109" role="button" data-slide="next"&gt;
+		&lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
+	&lt;/a&gt;
+&lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喬爾·侯布雄，法國廚師「L'Atelier de Joël Robuchon」餐廳。
+戈和米約美食指南曾於1989年稱他為「世紀主廚」。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.林台珍夫婦
+3.柯可君
+4.林娟
+5.李素美
+6.陳玲美
+7.孫全玉
+8.王台鳳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div id="carouselExampleIndicators-22-1109-b" class="carousel slide img-fluid" data-ride="carousel"&gt;
+	&lt;ol class="carousel-indicators"&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="02" class="active"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="02"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="03"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="04"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="05"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="06"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="07"&gt;&lt;/li&gt;
+	&lt;/ol&gt;
+	&lt;div class="carousel-inner"&gt;
+		&lt;div class="carousel-item active"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1109-22.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1109-22.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1109-23.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1109-24.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1109-25.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1109-26.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1109-27.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;												
+	&lt;/div&gt;
+	&lt;a class="carousel-control-prev" href="#carouselExampleIndicators-22-1109-b" role="button"	data-slide="prev"&gt;
+		&lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+	&lt;/a&gt;
+	&lt;a class="carousel-control-next" href="#carouselExampleIndicators-22-1109-b" role="button" data-slide="next"&gt;
+		&lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
+	&lt;/a&gt;
+&lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林台珍夫婦返台-A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林台珍夫婦返台-B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2006,13 +2136,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D68409-2229-2B47-BB03-1F2924D40D6E}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -2856,6 +2986,52 @@
         <v>181</v>
       </c>
     </row>
+    <row r="36" spans="1:8" ht="409.6">
+      <c r="A36" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D36" s="3">
+        <v>44874</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="409.6">
+      <c r="A37" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D37" s="3">
+        <v>44874</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db/NCCU-151-ClassmateRenuion.xlsx
+++ b/db/NCCU-151-ClassmateRenuion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/Documents/92_WebSite/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B507F06-926A-6844-86AE-B9F4195A4C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D87FD7-43D3-E94B-A613-E041A00415AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{2BBFF2CF-9D18-B644-8C97-C6A9FA422757}"/>
   </bookViews>
@@ -1704,6 +1704,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>林台珍夫婦返台-A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林台珍夫婦返台-B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;div id="carouselExampleIndicators-22-1109-b" class="carousel slide img-fluid" data-ride="carousel"&gt;
 	&lt;ol class="carousel-indicators"&gt;
 		&lt;li data-target="#carouselExampleIndicators" data-slide-to="02" class="active"&gt;&lt;/li&gt;
@@ -1715,7 +1723,7 @@
 		&lt;li data-target="#carouselExampleIndicators" data-slide-to="07"&gt;&lt;/li&gt;
 	&lt;/ol&gt;
 	&lt;div class="carousel-inner"&gt;
-		&lt;div class="carousel-item active"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1109-22.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item active"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1109-21.png" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
 		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1109-22.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
 		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1109-23.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
 		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1109-24.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
@@ -1732,14 +1740,6 @@
 		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
 	&lt;/a&gt;
 &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>林台珍夫婦返台-A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>林台珍夫婦返台-B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2139,10 +2139,10 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomRight" activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -2994,7 +2994,7 @@
         <v>185</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D36" s="3">
         <v>44874</v>
@@ -3017,7 +3017,7 @@
         <v>185</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D37" s="3">
         <v>44874</v>
@@ -3029,7 +3029,7 @@
         <v>190</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/db/NCCU-151-ClassmateRenuion.xlsx
+++ b/db/NCCU-151-ClassmateRenuion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/Documents/92_WebSite/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D87FD7-43D3-E94B-A613-E041A00415AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF7DA40-D5F9-2041-A4B2-C1457859B989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{2BBFF2CF-9D18-B644-8C97-C6A9FA422757}"/>
+    <workbookView xWindow="1080" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{2BBFF2CF-9D18-B644-8C97-C6A9FA422757}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="200">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1736,6 +1736,81 @@
 		&lt;span class="sr-only"&gt;Previous&lt;/span&gt;
 	&lt;/a&gt;
 	&lt;a class="carousel-control-next" href="#carouselExampleIndicators-22-1109-b" role="button" data-slide="next"&gt;
+		&lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
+	&lt;/a&gt;
+&lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林台珍夫婦返台-C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海故事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.何鏗鏘、2.林台珍、3.呂和美、4.楊蓁海、5.陳在瀛、6.黎銀妹、7.孫全玉、8.黃秋光、9.王玲、10.陳玲美、11.王台鳳、12.施紫玲、13.林娟、14吳光雄、15.李素美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div id="carouselExampleIndicators-22-1110" class="carousel slide img-fluid" data-ride="carousel"&gt;
+	&lt;ol class="carousel-indicators"&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="01" class="active"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="02"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="03"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="04"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="05"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="06"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="07"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="08"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="09"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="11"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="12"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="13"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="14"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="15"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="16"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="17"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="18"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="19"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="20"&gt;&lt;/li&gt;		
+	&lt;/ol&gt;
+	&lt;div class="carousel-inner"&gt;
+		&lt;div class="carousel-item active"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1110-01.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1110-02.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1110-03.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1110-04.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1110-05.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1110-06.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1110-07.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1110-08.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1110-09.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1110-10.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;	
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1110-11.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1110-12.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1110-13.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1110-14.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1110-15.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1110-16.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1110-17.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1110-18.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;											&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1110-19.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1110-20.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;			
+	&lt;/div&gt;
+	&lt;a class="carousel-control-prev" href="#carouselExampleIndicators-22-1110" role="button"	data-slide="prev"&gt;
+		&lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+	&lt;/a&gt;
+	&lt;a class="carousel-control-next" href="#carouselExampleIndicators-22-1110" role="button" data-slide="next"&gt;
 		&lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
 		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
 	&lt;/a&gt;
@@ -2136,13 +2211,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D68409-2229-2B47-BB03-1F2924D40D6E}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H37" sqref="H37"/>
+      <selection pane="bottomRight" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -3011,7 +3086,7 @@
     </row>
     <row r="37" spans="1:8" ht="409.6">
       <c r="A37" s="2" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>185</v>
@@ -3030,6 +3105,29 @@
       </c>
       <c r="H37" s="2" t="s">
         <v>193</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="409.6">
+      <c r="A38" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D38" s="3">
+        <v>44875</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/db/NCCU-151-ClassmateRenuion.xlsx
+++ b/db/NCCU-151-ClassmateRenuion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/Documents/92_WebSite/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF7DA40-D5F9-2041-A4B2-C1457859B989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19867E4B-3D2E-4B4B-9427-C117EC9389B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{2BBFF2CF-9D18-B644-8C97-C6A9FA422757}"/>
+    <workbookView xWindow="1060" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{2BBFF2CF-9D18-B644-8C97-C6A9FA422757}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="205">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1815,6 +1815,95 @@
 		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
 	&lt;/a&gt;
 &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福容飯店台北館</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.何鏗鏘、2.林台珍、3.呂和美、4.楊蓁海、5.陳在瀛、6.黎銀妹、7.孫全玉、8.黃秋光、9.王玲、10.張誠俊、11.王台鳳、12..林娟、13.李素美14.王貽媺15.鄭頴君16.周成波16.林孫源17.謝美玉夫婦18.劉醫師夫婦19程蓮蓮20.月麗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div id="carouselExampleIndicators-22-1114" class="carousel slide img-fluid" data-ride="carousel"&gt;
+	&lt;ol class="carousel-indicators"&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="01" class="active"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="02"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="03"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="04"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="05"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="06"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="07"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="08"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="09"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="11"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="12"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="13"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="14"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="15"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="16"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="17"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="18"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="19"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="20"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="21"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="22"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="23"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="24"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="25"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="26"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="27"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="28"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="29"&gt;&lt;/li&gt;
+	&lt;/ol&gt;
+	&lt;div class="carousel-inner"&gt;
+		&lt;div class="carousel-item active"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1114-01.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1114-02.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1114-03.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1114-04.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1114-05.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1114-06.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1114-07.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1114-08.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1114-09.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1114-10.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;	
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1114-11.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1114-12.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1114-13.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1114-14.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1114-15.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1114-16.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1114-17.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1114-18.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;											&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1114-19.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1114-20.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1114-21.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1114-22.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1114-23.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1114-24.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1114-25.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1114-26.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1114-27.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;	
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1114-28.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2022-1114-29.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+	&lt;/div&gt;
+	&lt;a class="carousel-control-prev" href="#carouselExampleIndicators-22-1114" role="button"	data-slide="prev"&gt;
+		&lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+	&lt;/a&gt;
+	&lt;a class="carousel-control-next" href="#carouselExampleIndicators-22-1114" role="button" data-slide="next"&gt;
+		&lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
+	&lt;/a&gt;
+&lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林台珍&amp;張誠俊夫婦返台</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2211,13 +2300,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D68409-2229-2B47-BB03-1F2924D40D6E}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H38" sqref="H38"/>
+      <selection pane="bottomRight" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -3130,6 +3219,29 @@
         <v>199</v>
       </c>
     </row>
+    <row r="39" spans="1:8" ht="409.6">
+      <c r="A39" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D39" s="3">
+        <v>44879</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db/NCCU-151-ClassmateRenuion.xlsx
+++ b/db/NCCU-151-ClassmateRenuion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/Documents/92_WebSite/NCCUBkAlumni/db/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/Documents/文件 - 王台中的MacBook Pro/92_WebSite/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19867E4B-3D2E-4B4B-9427-C117EC9389B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75E8057-F686-7148-BDD8-D351C6DE26E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{2BBFF2CF-9D18-B644-8C97-C6A9FA422757}"/>
+    <workbookView xWindow="15980" yWindow="-28220" windowWidth="34180" windowHeight="26400" xr2:uid="{2BBFF2CF-9D18-B644-8C97-C6A9FA422757}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="220">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1904,6 +1904,241 @@
   </si>
   <si>
     <t>林台珍&amp;張誠俊夫婦返台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君悅酒店聚會</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023年度聚會</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、吳盛賢, 2、王文枝, 3、古富其, 4、孫全玉, 5、林孫源, 6、謝美玉, 7、李素美, 8、陳玲美, 9、王台鳯, 10、林娟, 11、施紫玲, 12、陳榮顯, 13、周成波, 14、王貽媺, 15、尤錦堂, 16、柯可君, 17、洪志明, 18、陳海倫, 19、嚴建三, 20、黎銀妹, 21、陳在瀛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;2023年11月8日    天氣晴&lt;/p&gt;
+&lt;p&gt;台北君悅酒店（Grand Hyatt Taipei Hotel)
+大廳內，一陣騷動，出現一批台灣金融界人士。&lt;/p&gt;
+&lt;p&gt;他們曾任職在中央銀行曁台灣銀行、兆豐金控、合作金庫、中央信託、中央再保等各大金融機構，掌控台灣金融界將近半世紀的全融界人士。另有在各大公務機構，中華電信、郵政、石油、電力及私人公司等任職奉獻一生青春年華者在此聚會。最難能可貴的是我們源自於民國六十年國立政治大學銀行系第十屆畢業同班同學。&lt;/p&gt;
+&lt;p&gt;畢業五十二年的今天，我們在這風光明媚溫馨的時刻，愉快、歡樂、共度相聚的時刻。
+早上十點同學陳海倫第一位報到，陸續大家紛紛出現。不到十一點卅分，遠自南部、苗栗、桃園各地同學全數準時到達漂亮中餐廳。非常幸福，大家終於同坐在大圓桌，一起享受美食。大啖烤鵝（招牌菜）雞、及美味點心。席間舉杯歡慶彼此健康生活美滿。
+隨後，大家步行天橋，到鄰近101百貨四樓義瑪卡多（IL MERCATO)喝咖啡，並且享受通往101大樓觀景平台的觀光客必經之地。在此處國際知名品牌林立。台北最大的品牌集中地也是觀光勝地。並且到五樓參訪台北城市印象介紹。
+&lt;/p&gt;
+&lt;p&gt;
+四點鐘，持續趕往下一站華納威秀影城，以及遠百進階高級電影院參觀新頴的電影設施。希望有一天可以大家一起來看塲電影。同時，我們又參觀同棟遠東百貨四樓飲食街。仿四、五十年代大稻埕建築設計，回到時光隧道，我們的童年、靑少年古早時期有趣的時光記憶。
+&lt;/p&gt;
+&lt;p&gt;
+最後到達貴婦百貨（台北知名百貨公司）。由於南部同學王文枝趕火車時刻，在情別依依不捨⋯送別，期待再次相會。
+&lt;/p&gt;
+&lt;p&gt;
+感謝並感恩
+全體參加同學:
+孫全玉、林孫源、施紫玲、謝美玉、黎銀妹、陳在瀛
+等同學代表送別&lt;/p&gt;
+&lt;p&gt;
+李素美、陳玲美（財務長）&lt;br&gt;
+孫全玉、林孫源（導遊、地陪）&lt;br&gt;
+陳在灜（攝影）
+&lt;/p&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君悅酒店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101百貨公司四樓 義瑪卡多（IL MERCATO) 喝咖啡，參觀觀景台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遠東百貨四樓大稻埕仿古 十樓高級電影院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div id="carouselExampleIndicators-23-1108-2" class="carousel slide img-fluid" data-ride="carousel"&gt;
+	&lt;ol class="carousel-indicators"&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="01" class="active"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="02"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="03"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="04"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="05"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="06"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="07"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="08"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="09"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="11"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="12"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="13"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="14"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="15"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="16"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="17"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="18"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="19"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="20"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="21"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="22"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="23"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="24"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="25"&gt;&lt;/li&gt;	
+	&lt;/ol&gt;
+	&lt;div class="carousel-inner"&gt;
+		&lt;div class="carousel-item active"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-01.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-02.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-03.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-04.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-05.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-06.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-07.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-08.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-09.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-10.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;	
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-11.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-12.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-13.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-14.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-15.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-16.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-17.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-18.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-19.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-20.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-21.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-22.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-23.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-24.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-25.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;	
+	&lt;/div&gt;
+	&lt;a class="carousel-control-prev" href="#carouselExampleIndicators-23-1108-2" role="button"	data-slide="prev"&gt;
+		&lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+	&lt;/a&gt;
+	&lt;a class="carousel-control-next" href="#carouselExampleIndicators-23-1108-2" role="button" data-slide="next"&gt;
+		&lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
+	&lt;/a&gt;
+&lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div id="carouselExampleIndicators-23-1108-3" class="carousel slide img-fluid" data-ride="carousel"&gt;
+	&lt;ol class="carousel-indicators"&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="01" class="active"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="02"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="03"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="04"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="05"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="06"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="07"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="08"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="09"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="11"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="12"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="13"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="14"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="15"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="16"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="17"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="18"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="19"&gt;&lt;/li&gt;	
+	&lt;/ol&gt;
+	&lt;div class="carousel-inner"&gt;
+		&lt;div class="carousel-item active"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-41.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-42.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-43.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-44.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-45.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-46.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-47.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-48.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-49.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-50.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;	
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-51.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-52.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-53.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-54.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-55.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-56.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-57.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-58.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-59.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+	&lt;/div&gt;
+	&lt;a class="carousel-control-prev" href="#carouselExampleIndicators-23-1108-3" role="button"	data-slide="prev"&gt;
+		&lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+	&lt;/a&gt;
+	&lt;a class="carousel-control-next" href="#carouselExampleIndicators-23-1108-3" role="button" data-slide="next"&gt;
+		&lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
+	&lt;/a&gt;
+&lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div id="carouselExampleIndicators-23-1108-4" class="carousel slide img-fluid" data-ride="carousel"&gt;
+	&lt;ol class="carousel-indicators"&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="01" class="active"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="02"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="03"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="04"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="05"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="06"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="07"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="08"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="09"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="11"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="12"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="13"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="14"&gt;&lt;/li&gt;
+	&lt;/ol&gt;
+	&lt;div class="carousel-inner"&gt;
+		&lt;div class="carousel-item active"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-71.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-72.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-73.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-74.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-75.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-76.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-77.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-78.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-79.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-80.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;	
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-81.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-82.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-83.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1108-84.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+	&lt;/div&gt;
+	&lt;a class="carousel-control-prev" href="#carouselExampleIndicators-23-1108-4" role="button"	data-slide="prev"&gt;
+		&lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+	&lt;/a&gt;
+	&lt;a class="carousel-control-next" href="#carouselExampleIndicators-23-1108-4" role="button" data-slide="next"&gt;
+		&lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
+	&lt;/a&gt;
+&lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2300,13 +2535,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D68409-2229-2B47-BB03-1F2924D40D6E}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C39" sqref="C39"/>
+      <selection pane="bottomRight" activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -2317,7 +2552,7 @@
     <col min="4" max="4" width="15.1640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="23.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="28.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="30.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="69.1640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="145.83203125" style="2" customWidth="1"/>
     <col min="9" max="9" width="10.83203125" style="1"/>
     <col min="10" max="10" width="18.83203125" style="1" customWidth="1"/>
@@ -3242,6 +3477,98 @@
         <v>203</v>
       </c>
     </row>
+    <row r="40" spans="1:8" ht="409.6">
+      <c r="A40" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D40" s="3">
+        <v>45238</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="409.6">
+      <c r="A41" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D41" s="3">
+        <v>45238</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="409.6">
+      <c r="A42" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D42" s="3">
+        <v>45238</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="409.6">
+      <c r="A43" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D43" s="3">
+        <v>45238</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db/NCCU-151-ClassmateRenuion.xlsx
+++ b/db/NCCU-151-ClassmateRenuion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/Documents/文件 - 王台中的MacBook Pro/92_WebSite/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75E8057-F686-7148-BDD8-D351C6DE26E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69636295-BA92-404E-ADAF-C324EF6B0AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15980" yWindow="-28220" windowWidth="34180" windowHeight="26400" xr2:uid="{2BBFF2CF-9D18-B644-8C97-C6A9FA422757}"/>
+    <workbookView xWindow="6560" yWindow="-28220" windowWidth="41760" windowHeight="26400" xr2:uid="{2BBFF2CF-9D18-B644-8C97-C6A9FA422757}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="226">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2135,6 +2135,134 @@
 		&lt;span class="sr-only"&gt;Previous&lt;/span&gt;
 	&lt;/a&gt;
 	&lt;a class="carousel-control-next" href="#carouselExampleIndicators-23-1108-4" role="button" data-slide="next"&gt;
+		&lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
+	&lt;/a&gt;
+&lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君悅酒店漂亮中餐廳介紹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div id="carouselExampleIndicators-23-1108-5" class="carousel slide img-fluid" data-ride="carousel"&gt;
+	&lt;ol class="carousel-indicators"&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="01" class="active"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="02"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="03"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="04"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="05"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="06"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="07"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="08"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="09"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="11"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="12"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="13"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="14"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="15"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="16"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="17"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="18"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="19"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="20"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="21"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="22"&gt;&lt;/li&gt;
+	&lt;/ol&gt;
+	&lt;div class="carousel-inner"&gt;
+		&lt;div class="carousel-item active"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1109-01.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1109-02.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1109-03.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1109-04.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1109-05.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1109-06.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1109-07.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1109-08.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1109-09.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1109-10.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;	
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1109-11.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1109-12.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1109-13.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1109-14.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1109-15.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1109-16.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1109-17.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1109-18.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1109-19.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1109-20.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1109-21.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1109-22.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+	&lt;/div&gt;
+	&lt;a class="carousel-control-prev" href="#carouselExampleIndicators-23-1108-5" role="button"	data-slide="prev"&gt;
+		&lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+	&lt;/a&gt;
+	&lt;a class="carousel-control-next" href="#carouselExampleIndicators-23-1108-5" role="button" data-slide="next"&gt;
+		&lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
+	&lt;/a&gt;
+&lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div id="carouselExampleIndicators-23-1108-6" class="carousel slide img-fluid" data-ride="carousel"&gt;
+	&lt;ol class="carousel-indicators"&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="01" class="active"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="02"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="03"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="04"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="05"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="06"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="07"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="08"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="09"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="11"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="12"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="13"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="14"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="15"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="16"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="17"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="18"&gt;&lt;/li&gt;
+	&lt;/ol&gt;
+	&lt;div class="carousel-inner"&gt;
+		&lt;div class="carousel-item active"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1109-31.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1109-32.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1109-33.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1109-34.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1109-35.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1109-36.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1109-37.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1109-38.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1109-39.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1109-40.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;	
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1109-41.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1109-42.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1109-43.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1109-44.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1109-45.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1109-46.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1109-47.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1109-48.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+	&lt;/div&gt;
+	&lt;a class="carousel-control-prev" href="#carouselExampleIndicators-23-1108-6" role="button"	data-slide="prev"&gt;
+		&lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+	&lt;/a&gt;
+	&lt;a class="carousel-control-next" href="#carouselExampleIndicators-23-1108-6" role="button" data-slide="next"&gt;
 		&lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
 		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
 	&lt;/a&gt;
@@ -2535,13 +2663,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D68409-2229-2B47-BB03-1F2924D40D6E}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H43" sqref="H43"/>
+      <selection pane="bottomRight" activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -3569,6 +3697,46 @@
         <v>219</v>
       </c>
     </row>
+    <row r="44" spans="1:8" ht="409.6">
+      <c r="A44" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D44" s="3">
+        <v>45238</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="409.6">
+      <c r="A45" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db/NCCU-151-ClassmateRenuion.xlsx
+++ b/db/NCCU-151-ClassmateRenuion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/Documents/文件 - 王台中的MacBook Pro/92_WebSite/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69636295-BA92-404E-ADAF-C324EF6B0AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896C9A79-BB39-EB4E-A1FE-75AB61BA67CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6560" yWindow="-28220" windowWidth="41760" windowHeight="26400" xr2:uid="{2BBFF2CF-9D18-B644-8C97-C6A9FA422757}"/>
+    <workbookView xWindow="-8680" yWindow="-28300" windowWidth="32540" windowHeight="26400" xr2:uid="{2BBFF2CF-9D18-B644-8C97-C6A9FA422757}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="232">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2218,6 +2218,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2024-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024年度聚會</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 林台珍   2. 何鏗鏘  3. 王台鳯  4.李素美   5. 施紫玲 6.陳玲美   7.林娟  8.楊蓁海 9.呂和美 10.謝美玉  11.賴芳雄   12.黎銀妹 13.陳在瀛   14. 羅靜春   15. 周成波 16.蔡錦麗 17.王玲 18.孫全玉 19. 尤錦堂    20. 林孫源   21.黃秋光 22.魏春梅 23.辜英齡   24. 王貽媺 25.鄭穎君 26. 宋小瑩 27. 宋小瑩朋友28. 洪志明 29. 辜英齢女兒30. 何玲珠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;2024年12月3日 天氣晴&lt;/p&gt;
+&lt;p&gt;早在年初台珍夫婦傳來將在11-12月返台訊息時，我們已經計劃於年底召開年同學會。雖然，我們居住在國內同學，距離很近，但是，平常也各自家庭忙碌，少有聚會。大多在國外同學回台時，相約聚會聯絡感情。&lt;/p&gt;
+&lt;p&gt;十月份開始籌備召集，大家在網路上接龍，開始時，意態闌珊，參加者並非踴躍。直到時間逼近時，小羅突然自紐約發來訊息，已經購買機票，返台探親。並且參加同學會。瞬間，七仙女紛紛加入同學會，氣勢洶洶，好不熱鬧。小羅堪稱是發電機。&lt;/p&gt;
+&lt;p&gt;不久之後，宋小瑩也宣布，在台灣旅遊訊息。參加同學又一波加入。國外及國內同學已經增加達卅人達到滿額人數。&lt;/p&gt;
+&lt;p&gt;籌備單位開始煩惱，尋找適當的場所，可以容納這麼多人。在挑選塲所時，突然發現艾美酒店探索廚房，可以糾團訂位。且持有美饌卡者享有75折優惠。空間寬敞、自助餐適合各自口味。照片打卡點多。適合拍照。在各項條件穩合情況下，拍板定案。&lt;/p&gt;
+&lt;p&gt;12月3日當天，風和日麗，我在君悅飯店大廳等候接待北上同學。偕同台珍夫婦及魏春梅，一同前往艾美酒店探索廚房。許多同學已經到達現場，一片熱鬧非凡。
+幸好塲所寬敞，大家可以無拘束，打招呼。好不熱絡。&lt;/p&gt;
+&lt;p&gt;各自取餐，選擇好座位，大快朵頤，享用美食，並且可以自由走動交談，非常愉悅。&lt;/p&gt;
+&lt;p&gt;這次同學會，有多位同學慷慨解囊，擔當金主，併此致謝！更要感謝財務長李素美擔任財務管理工作，費心費力。&lt;/p&gt;
+&lt;p&gt;畢業五十多年，大家健康快樂聚會。非常感恩上天眷顧，希望年年有此日，老同學大家相聚、相會開心終老。&lt;/p&gt;
+&lt;p&gt;李素美、陳玲美（財務長、金主） 孫全玉、林孫源、周成波（金主）陳在灜（攝影）&lt;/p&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;div id="carouselExampleIndicators-23-1108-6" class="carousel slide img-fluid" data-ride="carousel"&gt;
 	&lt;ol class="carousel-indicators"&gt;
 		&lt;li data-target="#carouselExampleIndicators" data-slide-to="01" class="active"&gt;&lt;/li&gt;
@@ -2237,6 +2267,7 @@
 		&lt;li data-target="#carouselExampleIndicators" data-slide-to="16"&gt;&lt;/li&gt;
 		&lt;li data-target="#carouselExampleIndicators" data-slide-to="17"&gt;&lt;/li&gt;
 		&lt;li data-target="#carouselExampleIndicators" data-slide-to="18"&gt;&lt;/li&gt;
+			&lt;li data-target="#carouselExampleIndicators" data-slide-to="19"&gt;&lt;/li&gt;	
 	&lt;/ol&gt;
 	&lt;div class="carousel-inner"&gt;
 		&lt;div class="carousel-item active"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2023-1109-31.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
@@ -2263,6 +2294,103 @@
 		&lt;span class="sr-only"&gt;Previous&lt;/span&gt;
 	&lt;/a&gt;
 	&lt;a class="carousel-control-next" href="#carouselExampleIndicators-23-1108-6" role="button" data-slide="next"&gt;
+		&lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
+	&lt;/a&gt;
+&lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div id="carouselExampleIndicators-24-1203-1" class="carousel slide img-fluid" data-ride="carousel"&gt;
+	&lt;ol class="carousel-indicators"&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="01" class="active"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="02"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="03"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="04"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="05"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="06"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="07"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="08"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="09"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="10"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="11"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="12"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="13"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="14"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="15"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="16"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="17"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="18"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="19"&gt;&lt;/li&gt;	
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="20"&gt;&lt;/li&gt;	
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="21"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="22"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="23"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="24"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="25"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="26"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="27"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="28"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="29"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="30"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="31"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="32"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="33"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="34"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="35"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="36"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="37"&gt;&lt;/li&gt;	
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="38"&gt;&lt;/li&gt;	
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="39"&gt;&lt;/li&gt;	
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="40"&gt;&lt;/li&gt;	
+	&lt;/ol&gt;
+	&lt;div class="carousel-inner"&gt;
+		&lt;div class="carousel-item active"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2024-1203-01.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2024-1203-02.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2024-1203-03.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2024-1203-04.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2024-1203-05.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2024-1203-06.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2024-1203-07.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2024-1203-08.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2024-1203-09.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2024-1203-10.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;	
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2024-1203-11.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2024-1203-12.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2024-1203-13.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2024-1203-14.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2024-1203-15.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2024-1203-16.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2024-1203-17.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2024-1203-18.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2024-1203-19.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2024-1203-20.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2024-1203-21.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2024-1203-22.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2024-1203-23.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2024-1203-24.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2024-1203-25.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2024-1203-26.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2024-1203-27.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2024-1203-28.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2024-1203-29.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;	
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2024-1203-30.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2024-1203-31.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2024-1203-32.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2024-1203-33.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2024-1203-34.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2024-1203-35.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2024-1203-36.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2024-1203-37.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2024-1203-38.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2024-1203-39.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;	
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1401-2024-1203-40.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;				
+	&lt;/div&gt;
+	&lt;a class="carousel-control-prev" href="#carouselExampleIndicators-24-1203-1" role="button"	data-slide="prev"&gt;
+		&lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+	&lt;/a&gt;
+	&lt;a class="carousel-control-next" href="#carouselExampleIndicators-24-1203-1" role="button" data-slide="next"&gt;
 		&lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
 		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
 	&lt;/a&gt;
@@ -2367,9 +2495,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2407,7 +2535,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2513,7 +2641,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2655,7 +2783,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2663,13 +2791,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D68409-2229-2B47-BB03-1F2924D40D6E}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G45" sqref="G45"/>
+      <selection pane="bottomRight" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -3734,7 +3862,33 @@
         <v>223</v>
       </c>
       <c r="H45" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="409.6">
+      <c r="A46" s="2" t="s">
         <v>225</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D46" s="3">
+        <v>45629</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/db/NCCU-151-ClassmateRenuion.xlsx
+++ b/db/NCCU-151-ClassmateRenuion.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="242">
   <si>
     <t>No</t>
   </si>
@@ -2731,6 +2731,527 @@
     您的瀏覽器不支援影片播放。
   &lt;/video&gt;
 &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>2025-02</t>
+  </si>
+  <si>
+    <t>2025年同學會</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1. 張春雄老師 2. 廖景星夫婦 3. 陳玲美 、4. 王台鳯 5. 孫全玉 6. 尤錦堂 7. 施紫玲夫婦 8.呂和美 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>9.謝美玉 10.林娟 11.李素美  12.林孫源 13黎銀妹 14.陳在瀛 15.王貽媺 16.魏春梅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>&lt;p&gt;2025年5月26日   天氣陰雨&lt;/p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>&lt;p&gt;今年（2025）距1971年畢業，轉瞬巳經54年。適逢政治大學建校百年校慶，5月20日大家興高采烈回母校探訪。另外，廖景星同學自加拿大溫哥華返台。畢業50多年未曾見面，特在5月26日在君悅酒店舉行同學會。&lt;/p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>&lt;p&gt;早上11點趕到君悅酒店大廳等候同學的到來。在捷運101站巧遇從新竹趕來的魏春梅。李素美財務長及班長孫全玉均已早早來到。遠道而來的佳賓廖景星夫婦也來到大廳會塲。大家敍舊相見歡。&lt;/p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>&lt;p&gt;此次同學會，非常榮幸有張春雄老師參加。張老師的視力不佳。及遠道而來的香港僑生同學廖景星夫婦參加，在漂亮中餐廳舉行。現場環境佈置典雅。久違的同學互訴近況，54年未曾見面，大家非常珍惜此次同學會聚會的機會。&lt;/p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>&lt;p&gt;我們在君悅酒店，各處打卡點留下，資深俊男美女的倩影。看到大家健康歡樂，興高彩烈的留影。按下快門留下永恆的追憶。&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>&lt;p&gt;隨後，應廖景星同學的要求，在雨中我們搭乘文湖線捷運趕往政大母校探訪。回憶當年的求學生涯生活情況。&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>&lt;p&gt;廖景星同學報導：&lt;/br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>被「銀行」埋沒的景星同學，具有藝術的素養，美學的眼光。呈現在詩詞、文學、書法、繪畫、攝影等各方面。據悉他曾在溫哥華當地擔任攝影學會的會長。&lt;/p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>&lt;p&gt;他是一位虔誠的基督徒。𤔡人非常的低調、謙虛、有禮貌。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1867年，自香港來台灣求學。回到香港在金融業恆隆銀行任職。退休後移居加拿大溫哥華。育有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>兩位女公子，一位就讀博士學位。一位醫師。已有孫子乙位。&lt;/p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>&lt;p&gt;李素美同學專訪：&lt;/br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>他在香港恆隆銀行服務，負責類似內控、內稽重責，以分行主管退休。&lt;/p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>&lt;p&gt;移居加拿大🇨🇦曾在Citi服務，擔任前台工作時，曾遇到持槍槍匪，當他鎮定地打開抽屜抽取鈔票（花旗設計移動鈔票，自然會觸及保全警鈴），然而，後面主管突然喊出有搶匪，以致搶匪當塲開槍，子彈穿過主管臉部⋯。&lt;/p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>&lt;p&gt;經歷此次職塲意外，景星是位有福的人。因此，毅然決定辭職，在家與夫人與女兒們共享</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>天倫。夫人Connie長得很美，娟秀嬌柔。正如美玉同學所言，我們班上女同學們可是學不來的。&lt;/p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>&lt;p&gt;（Connie私下跟我說：她羨慕女同學，各個充滿自信，雖然強勢，但是有底氣。）&lt;/p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;div id="carouselExampleIndicators-25-0526-1" class="carousel slide img-fluid" data-ride="carousel"&gt;
+	&lt;ol class="carousel-indicators"&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="01" class="active"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="02"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="03"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="04"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="05"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="06"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="07"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="08"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="09"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="10"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="11"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="12"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="13"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="14"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="15"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="16"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="17"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="18"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="19"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="20"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="21"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="22"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="23"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="24"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="25"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="26"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="27"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="28"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="29"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="30"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="31"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="32"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="33"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="34"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="35"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="36"&gt;&lt;/li&gt;
+	&lt;/ol&gt;
+	&lt;div class="carousel-inner"&gt;
+		&lt;div class="carousel-item active"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0526-01.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0526-02.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0526-03.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0526-04.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0526-05.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0526-06.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;	
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0526-07.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0526-08.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0526-09.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0526-10.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0526-11.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0526-12.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0526-13.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0526-14.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0526-15.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0526-16.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0526-17.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0526-18.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0526-19.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0526-20.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;	
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0526-21.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0526-22.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0526-23.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0526-24.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0526-25.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0526-26.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0526-27.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0526-28.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0526-29.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0526-30.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0526-31.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0526-32.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0526-33.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0526-34.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;	
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0526-35.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0526-36.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;			
+	&lt;/div&gt;
+	&lt;a class="carousel-control-prev" href="#carouselExampleIndicators-25-0526-1" role="button"	data-slide="prev"&gt;
+		&lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+	&lt;/a&gt;
+	&lt;a class="carousel-control-next" href="#carouselExampleIndicators-25-0526-1" role="button" data-slide="next"&gt;
+		&lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
+	&lt;/a&gt;
+&lt;/div&gt;
+</t>
   </si>
 </sst>
 </file>
@@ -3901,7 +4422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -5060,6 +5581,32 @@
         <v>236</v>
       </c>
     </row>
+    <row r="48" ht="1221" customHeight="1">
+      <c r="A48" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="D48" s="4">
+        <v>45803</v>
+      </c>
+      <c r="E48" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>241</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/db/NCCU-151-ClassmateRenuion.xlsx
+++ b/db/NCCU-151-ClassmateRenuion.xlsx
@@ -2997,7 +2997,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>1867年，自香港來台灣求學。回到香港在金融業恆隆銀行任職。退休後移居加拿大溫哥華。育有</t>
+      <t>1967年，自香港來台灣求學。回到香港在金融業恆隆銀行任職。退休後移居加拿大溫哥華。育有</t>
     </r>
     <r>
       <rPr>

--- a/db/NCCU-151-ClassmateRenuion.xlsx
+++ b/db/NCCU-151-ClassmateRenuion.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="247">
   <si>
     <t>No</t>
   </si>
@@ -3252,6 +3252,803 @@
 	&lt;/a&gt;
 &lt;/div&gt;
 </t>
+  </si>
+  <si>
+    <t>2025-03</t>
+  </si>
+  <si>
+    <t>台北近郊</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>廖景星夫婦、陳玲美</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>施紫玲、王台鳳</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>&lt;p&gt;2025/5/27    星期一   天氣陰雨&lt;/p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>&lt;p&gt;行車：九人座賓士 陳家源    0968 -767-119&lt;/p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>&lt;p&gt;台北市位於台北盆地中央，淡水河右岸。北海岸有很多知名的十大景點海邊、沙灘、及秘境。來個輕旅行，不錯的好主意！&lt;/p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>&lt;p&gt;回憶青少年及大學時期，最常舉辦畢業旅遊的地方，野柳一定排上前三名，被推選為台北近郊旅遊的首選。野柳地區最讓遊客驚喜、回味探尋去找尋的就是「女王頭」了。野柳女王頭是位於野柳地質公園內的一顆著名蕈狀岩，因其形狀宛如一位凝視遠方的女王，頸部修長且臉部線條優美而得名。&lt;/p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>&lt;p&gt;女王頭於1962年由業餘攝影師吳東興拍攝並命名，成為野柳地質公園的地標和北海岸的重要觀光景點。&lt;/p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>&lt;p&gt;女王頭的高度約8公尺，岩石年齡約4000年，但因長期風化，尤其是頸部逐年變細，近年來頸圍從2008年的138公分減少到2023年的約118公分，預計未來10至15年內可能因風化或地震斷裂。為保護女王頭，政府曾進行防風化藥劑測試及修補工作，但仍面臨自然風化的挑戰。野柳地質公園除了女王頭外，還有多種奇特岩石如俏皮公主、龍頭石、金剛石等，園區分為三大區，並設有夜間燈光秀等活動，吸引大量遊客前來觀賞。&lt;/p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>&lt;p&gt;早年常來野柳旅遊，熟悉的野柳，近年來，在新北市政府的努力經營下風貌也有大幅度的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>修整與改變。與早期的記憶，已大不相同，處處充滿驚喜。風景依舊美麗，對遊客而言，更顯現安全舒適。見到來自國外的觀光客甚多，大家都前來一遊，足見女王頭的魅力。&lt;/p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>&lt;p&gt;由於「女王頭」及許多特殊岩石均在較遠的沙灘處，𤔡讓遊客就近拍照，特別有複製品。旅客在此打卡，好不開心！我們也在此留下很多的倩影。&lt;/p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>&lt;p&gt;突然下了一陣雨。大家只好走避去逛遊客中心。此處設置咖啡、甜點。&lt;/p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>&lt;p&gt;野柳地區周邊，大啖海鮮料理餐廳林立。我們前往一家四姊妹餐廳。饕客玲美點了美味龍蝦、海瓜子、炒牛肉炒河蝦、海鮮炒飯、蛤仔湯，還喝了商家特製的冬瓜檸檬石花凍。&lt;/p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>&lt;h3&gt;平溪放天燈&lt;/h3&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>&lt;p&gt;下一站，我們沿途趕到平溪。據悉此處目前可是年輕人的最愛。在1988年的元宵節首次公開</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>施放天燈，使其成為臺灣天燈活動的發源地，於1990年代後即已有「南蜂炮、北天燈」的說法。&lt;/p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>&lt;p&gt;從平溪車站出來走幾步就能到平溪老街，平溪老街保有依立著基隆河畔而建的傳統長條街屋，房子都以兩層樓建築為主，販售美食、紀念品，甚至還有日治氣氛的布行和冰店，狹窄擁擠的街道有著濃濃的山城風情，更重要的是這裡簡直是平溪美食的集散地！&lt;/p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>&lt;p&gt;鐵道兩旁的商家，找乙家店家表明放天燈的來意。店家就會派人指導，在天燈的四面，採用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>毛筆寫上祝福語。然後，在鐵道軌道上擺各種拍照姿勢。最後，店家就將天燈點燃飄到天空。過程全程錄影非常精彩好玩。老少咸宜。Hi到不行！楽此不疲。&lt;/p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>&lt;h3&gt;十分瀑布&lt;/h3&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>&lt;p&gt;十分瀑布位於新北平溪區，為台鐵支線平溪的著名景點，當地稱為六份漈。地處基隆河上游瀑布群。十分瀑布落差高度約20公尺、寬度約40公尺，壯麗的水瀑、磅礡的氣勢，為臺灣最大的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>簾幕式瀑布。上游觀瀑吊橋下的眼睛洞瀑布。因洞如眼鏡而得名。&lt;/p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>&lt;p&gt;同學們年高75歲，老當益壯相互扶持上上下下，走過吊橋一路前進。沿途不忘打打鬧鬧十分小心，避免跌倒。走到瀑布區享受夏天的涼爽。在瀑布區拍照留念，不虛此行。&lt;/p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>&lt;h3&gt;九份&lt;/h3&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>&lt;p&gt;九份，是新北瑞芳區的一個聚落，與基隆山遙望；整個小鎮座落於山坡地上，也因此形成了獨特的山坡和階梯式建築景觀。1990年代後的電影「悲情城市」在此取景，以及2001年上映</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>的動畫電影「神穩少女」。與此地極為相似。使得九份獨特的舊式建築、坡地及風情吸引國內外的注目，也為此地區重新帶來生機，成為觀光景點。&lt;/p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>&lt;p&gt;美中不足，來到此地，開始下雨。我們撐起傘走在兩旁商店，目不暇給。快速找到一家商店，大家點著一杯杏仁茶，及咖啡冰沙。休閒地喝著飲料。司機小弟介紹好多好吃的美食，可惜因為大家不餓，都沒有能夠品嚐到，因為下雨的関係，就趕緊回到台北温暖的家。希望下次再來玩。&lt;/p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;div id="carouselExampleIndicators-25-0527-1" class="carousel slide img-fluid" data-ride="carousel"&gt;
+	&lt;ol class="carousel-indicators"&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="01" class="active"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="02"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="03"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="04"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="05"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="06"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="07"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="08"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="09"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="10"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="11"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="12"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="13"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="14"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="15"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="16"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="17"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="18"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="19"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="20"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="21"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="22"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="23"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="24"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="25"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="26"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="27"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="28"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="29"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="30"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="31"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="32"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="33"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="34"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="35"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="36"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="37"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="38"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="39"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="40"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="41"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="42"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="43"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="44"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="45"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="46"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="47"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="48"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="49"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="50"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="51"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="52"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="53"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="54"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="55"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="56"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="57"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="58"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="59"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="60"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="61"&gt;&lt;/li&gt;
+		&lt;li data-target="#carouselExampleIndicators" data-slide-to="62"&gt;&lt;/li&gt;
+	&lt;/ol&gt;
+	&lt;div class="carousel-inner"&gt;
+		&lt;div class="carousel-item active"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-01.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-02.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-03.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-04.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-05.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-06.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;	
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-07.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-08.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-09.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-10.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-11.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-12.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-13.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-14.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-15.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-16.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-17.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-18.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-19.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-20.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;	
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-21.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-22.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-23.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-24.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-25.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-26.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-27.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-28.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-29.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-30.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-31.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-32.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-33.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-34.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;	
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-35.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-36.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt; 
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-37.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-38.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-39.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-40.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-41.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-42.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-43.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-44.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-45.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-46.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;	
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-47.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-48.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-49.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-50.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-51.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-52.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-53.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-54.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-55.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-56.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-57.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-58.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-59.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-60.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;	
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-61.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+		&lt;div class="carousel-item"&gt;&lt;img src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-62.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;			
+	&lt;/div&gt;
+	&lt;a class="carousel-control-prev" href="#carouselExampleIndicators-25-0527-1" role="button"	data-slide="prev"&gt;
+		&lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+	&lt;/a&gt;
+	&lt;a class="carousel-control-next" href="#carouselExampleIndicators-25-0527-1" role="button" data-slide="next"&gt;
+		&lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
+	&lt;/a&gt;
+&lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -3352,7 +4149,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -3369,6 +4166,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4422,7 +5222,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -5607,6 +6407,32 @@
         <v>241</v>
       </c>
     </row>
+    <row r="49" ht="1935" customHeight="1">
+      <c r="A49" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="C49" t="s" s="6">
+        <v>83</v>
+      </c>
+      <c r="D49" s="4">
+        <v>45804</v>
+      </c>
+      <c r="E49" t="s" s="6">
+        <v>243</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>246</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/db/NCCU-151-ClassmateRenuion.xlsx
+++ b/db/NCCU-151-ClassmateRenuion.xlsx
@@ -4048,6 +4048,20 @@
 		&lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
 		&lt;span class="sr-only"&gt;Next&lt;/span&gt;
 	&lt;/a&gt;
+&lt;/div&gt;
+&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;
+&lt;div style="position: relative; width: 100%; padding-top: 56.25%;"&gt;
+  &lt;video controls style="position: absolute; top: 0; left: 0; width: 100%; height: 100%;"&gt;
+    &lt;source src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-92.mp4" type="video/mp4"&gt;
+    您的瀏覽器不支援影片播放。
+  &lt;/video&gt;
+&lt;/div&gt;
+&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;
+&lt;div style="position: relative; width: 100%; padding-top: 177.78%;"&gt;
+  &lt;video controls style="position: absolute; top: 0; left: 0; width: 100%; height: 100%;"&gt;
+    &lt;source src="fig/NCCU-14-ClassRenuion/NCCU-1402-2025-0527-93.mp4" type="video/mp4"&gt;
+    您的瀏覽器不支援影片播放。
+  &lt;/video&gt;
 &lt;/div&gt;</t>
   </si>
 </sst>
@@ -6407,7 +6421,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="49" ht="1935" customHeight="1">
+    <row r="49" ht="2165" customHeight="1">
       <c r="A49" t="s" s="2">
         <v>242</v>
       </c>
